--- a/test_speeches/predictions/Coding_Differneces_103_AI.xlsx
+++ b/test_speeches/predictions/Coding_Differneces_103_AI.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K298"/>
+  <dimension ref="A1:L299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,64 +436,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Sentence</t>
+          <t>sentence</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Metaphor/Simile</t>
+          <t>label</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Metaphor/Similie</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Rhetorical questions</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Stories / anecdotes</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Stories/Anecdotes</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Contrasts</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lists / Repetition </t>
-        </is>
-      </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Moral conviction</t>
+          <t>Lists</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Sentiment of the collective</t>
+          <t>Repetition</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Ambitious goals / Setting high expectations</t>
+          <t>Moral_conviction</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Confidence in goals</t>
+          <t>Sentiment_of_the_collective</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Setting_high_expectations</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Thank you Mr. Speaker.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
         <v>0</v>
       </c>
@@ -507,7 +508,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -519,16 +520,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lieutenant Governor Hall Long, Mr. Speaker, Mr. President Prote, members of the 150th General Assembly, members of my cabinet, distinguish members of the judiciary, invited guests and my fellow Delawareans.</t>
+          <t>Thank you Mr. Speaker.</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -544,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -556,20 +560,23 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Thank you Mr. Speaker for inviting me today.</t>
+          <t>Lieutenant Governor Hall Long, Mr. Speaker, Mr. President Prote, members of the 150th General Assembly, members of my cabinet, distinguish members of the judiciary, invited guests and my fellow Delawareans.</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -584,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -593,16 +600,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Its a a great privilege and its great to be here with all of you.</t>
+          <t>Thank you Mr. Speaker for inviting me today.</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -618,7 +628,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -630,26 +640,29 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Before I get started, a point of personal privilege if I may, we`re joined today by my beautiful mother Ann Carney.</t>
+          <t>Its a a great privilege and its great to be here with all of you.</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -658,29 +671,32 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>She always gets the loudest applause.</t>
+          <t>Before I get started, a point of personal privilege if I may, we`re joined today by my beautiful mother Ann Carney.</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -689,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -698,29 +714,32 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>I told her that at least there would be one person in the chamber who would be cheering for me.</t>
+          <t>She always gets the loudest applause.</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -732,25 +751,28 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Not bad, she raised nine children and taught school for 30 years and is here with us today and shell be leading the applause.</t>
+          <t>I told her that at least there would be one person in the chamber who would be cheering for me.</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -778,20 +800,23 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>So keep your eye on her.</t>
+          <t>Not bad, she raised nine children and taught school for 30 years and is here with us today and shell be leading the applause.</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -809,22 +834,25 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Mom is here with my brothers Mike and Joe, Joes wife, Gail, my brother-in-law, who you all know, Brendan ONeill, the state public defender.</t>
+          <t>So keep your eye on her.</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -840,32 +868,35 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>My sister Claire is here as well.</t>
+          <t>Mom is here with my brothers Mike and Joe, Joes wife, Gail, my brother-in-law, who you all know, Brendan ONeill, the state public defender.</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -880,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -889,20 +920,23 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Thank you for joining us all.</t>
+          <t>My sister Claire is here as well.</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -926,16 +960,19 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>I also want to start with a thank you to my wife Tracy for everything shes doing for our state.</t>
+          <t>Thank you for joining us all.</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -963,16 +1000,19 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Well, Mr. Speaker, that makes two that get louder Applause.</t>
+          <t>I also want to start with a thank you to my wife Tracy for everything shes doing for our state.</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -1000,16 +1040,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>She keeps me humble.</t>
+          <t>Well, Mr. Speaker, that makes two that get louder Applause.</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1028,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1037,23 +1080,26 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Finally, Id like to recognize one of my oldest friends in the legislature, Senator Harris McDowell.</t>
+          <t>She keeps me humble.</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1068,26 +1114,29 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Senator McDowell and I have been friends for a long time and weve been neighbors for 33 years and its been a privilege for me to be represented by him in Delaware State Senate.</t>
+          <t>Finally, Id like to recognize one of my oldest friends in the legislature, Senator Harris McDowell.</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1111,20 +1160,23 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>As you all know, he will be retiring at the end of this year.</t>
+          <t>Senator McDowell and I have been friends for a long time and weve been neighbors for 33 years and its been a privilege for me to be represented by him in Delaware State Senate.</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -1148,20 +1200,23 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Harris is someone who has left his mark on this state in more ways than can be counted and his absent will be deeply felt in the Senate Chamber and in back in our neighborhood, in our district in Wilmington.</t>
+          <t>As you all know, he will be retiring at the end of this year.</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -1173,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1185,20 +1240,23 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>One more time join me in thanking Senator McDowell for his support.</t>
+          <t>Harris is someone who has left his mark on this state in more ways than can be counted and his absent will be deeply felt in the Senate Chamber and in back in our neighborhood, in our district in Wilmington.</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -1213,29 +1271,32 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>This is the fourth time Im addressing this body as your governor and as we start the last year of my first term, it feels appropriate to take stock of where we were three years ago of the promises weve made, of the promises weve made good on and of the work we have left to do.</t>
+          <t>One more time join me in thanking Senator McDowell for his support.</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -1244,72 +1305,78 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
       </c>
       <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Three years ago I promised that at the end of my term, our economy would be stronger, that middle and working class Delawareans would be better off, that would be better paying jobs, that we would feel safer in our neighborhoods and in our cities and towns, that more of our children would be graduating ready for what comes next with a sense of promise about the future and that our states finances would be strong and in order.</t>
+          <t>This is the fourth time Im addressing this body as your governor and as we start the last year of my first term, it feels appropriate to take stock of where we were three years ago of the promises weve made, of the promises weve made good on and of the work we have left to do.</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
       </c>
       <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>And so today I have good news to report.</t>
+          <t>Three years ago I promised that at the end of my term, our economy would be stronger, that middle and working class Delawareans would be better off, that would be better paying jobs, that we would feel safer in our neighborhoods and in our cities and towns, that more of our children would be graduating ready for what comes next with a sense of promise about the future and that our states finances would be strong and in order.</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -1324,25 +1391,28 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Compared to when I took office 20,000 more people go to work every day in Delaware.</t>
+          <t>And so today I have good news to report.</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -1370,20 +1440,23 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>In fact, more Delawareans are working than at any point in our states history and with a strong economy, its the right time for us to invest in our future.</t>
+          <t>Compared to when I took office 20,000 more people go to work every day in Delaware.</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -1407,20 +1480,23 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>More than half of all Delawareans working are employed at small businesses.</t>
+          <t>In fact, more Delawareans are working than at any point in our states history and with a strong economy, its the right time for us to invest in our future.</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -1438,26 +1514,29 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>They are the engine of economic growth here.</t>
+          <t>More than half of all Delawareans working are employed at small businesses.</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -1481,20 +1560,23 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Our future success depends on finding ways to grow our small businesses.</t>
+          <t>They are the engine of economic growth here.</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -1509,35 +1591,38 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
       </c>
       <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>So last spring we started a new grant program, encouraging development and growth expansion or Edge grants for short.</t>
+          <t>Our future success depends on finding ways to grow our small businesses.</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -1549,26 +1634,29 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Weve already nearly awarded 1.5 million in Edge grants to 20 companies.</t>
+          <t>So last spring we started a new grant program, encouraging development and growth expansion or Edge grants for short.</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -1583,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -1592,16 +1680,19 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>One of those business owners is Santiago Rojas Carbonnell with W seven Energy.</t>
+          <t>Weve already nearly awarded 1.5 million in Edge grants to 20 companies.</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -1629,16 +1720,19 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>He and his team are developing battery technology for zero emissions electric vehicles.</t>
+          <t>One of those business owners is Santiago Rojas Carbonnell with W seven Energy.</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1666,16 +1760,19 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Santiago is here with us today.</t>
+          <t>He and his team are developing battery technology for zero emissions electric vehicles.</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1703,16 +1800,19 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Lets give him a round of applause.</t>
+          <t>Santiago is here with us today.</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1740,26 +1840,29 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Golftainer, the new private operator of the Port of Wilmington is investing as much as 600 million in the port.</t>
+          <t>Lets give him a round of applause.</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -1777,16 +1880,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>That includes a new state of the art container terminal at Edge more.</t>
+          <t>Golftainer, the new private operator of the Port of Wilmington is investing as much as 600 million in the port.</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -1814,16 +1920,19 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>The ILA has already signed up 500 new members in anticipation of those opportunities and theyve leased Albert Palmer Elementary School in Southbridge to build a workforce training facility for port workers.</t>
+          <t>That includes a new state of the art container terminal at Edge more.</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1851,16 +1960,19 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>This investment will translate into hundreds and perhaps thousands of new jobs.</t>
+          <t>The ILA has already signed up 500 new members in anticipation of those opportunities and theyve leased Albert Palmer Elementary School in Southbridge to build a workforce training facility for port workers.</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -1888,16 +2000,19 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Thanks to the Delaware Prosperity Partnership, there are over a thousand new jobs in Delaware and over a thousand jobs stayed here in Delaware instead of moving outta state.</t>
+          <t>This investment will translate into hundreds and perhaps thousands of new jobs.</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1913,7 +2028,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1925,20 +2040,23 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>With your help, weve invested $10 million in a new transportation infrastructure fund.</t>
+          <t>Thanks to the Delaware Prosperity Partnership, there are over a thousand new jobs in Delaware and over a thousand jobs stayed here in Delaware instead of moving outta state.</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -1950,28 +2068,31 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
       </c>
       <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>When companies are deciding where to locate, well be able to move quickly and decisively to help them.</t>
+          <t>With your help, weve invested $10 million in a new transportation infrastructure fund.</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -1999,20 +2120,23 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Thank you Secretary Cohen for your help there.</t>
+          <t>When companies are deciding where to locate, well be able to move quickly and decisively to help them.</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -2030,22 +2154,25 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
       </c>
       <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Delawareans also expect to be able to get to and from work quickly and safely, and thats why were investing 4.5 billion over the next six years to modernize our roads, Bridges and public transit.</t>
+          <t>Thank you Secretary Cohen for your help there.</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -2061,32 +2188,35 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>New investments in our technology infrastructure have already brought high speed internet to the areas around Laurel, Sea and Bridgeville where service was spotty or nonexistent before.</t>
+          <t>Delawareans also expect to be able to get to and from work quickly and safely, and thats why were investing 4.5 billion over the next six years to modernize our roads, Bridges and public transit.</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -2095,35 +2225,38 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>This is also helping family owned businesses like Ellis Farms, which is a poultry ingrained business in Millsboro.</t>
+          <t>New investments in our technology infrastructure have already brought high speed internet to the areas around Laurel, Sea and Bridgeville where service was spotty or nonexistent before.</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -2138,25 +2271,28 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
       </c>
       <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>They rely on high speed internet to collect data and drive their farming operations and projects are scheduled in Kent County in the coming weeks.</t>
+          <t>This is also helping family owned businesses like Ellis Farms, which is a poultry ingrained business in Millsboro.</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -2184,16 +2320,19 @@
         <v>0</v>
       </c>
       <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Kimberly Hopkins is an educator in Seaford without access to high speed internet Kimberly couldnt grade papers online at night and her son with autism couldnt get his videos to buffer.</t>
+          <t>They rely on high speed internet to collect data and drive their farming operations and projects are scheduled in Kent County in the coming weeks.</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -2203,13 +2342,13 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2221,20 +2360,23 @@
         <v>0</v>
       </c>
       <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Kimberly participated in our broadband pilot and is here with us today.</t>
+          <t>Kimberly Hopkins is an educator in Seaford without access to high speed internet Kimberly couldnt grade papers online at night and her son with autism couldnt get his videos to buffer.</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -2243,7 +2385,7 @@
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -2252,22 +2394,25 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="n">
         <v>0</v>
       </c>
       <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Shes representing the thousands of Sussex and Ken Countians who now have access to this crucial 21st century technology.</t>
+          <t>Kimberly participated in our broadband pilot and is here with us today.</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -2295,20 +2440,23 @@
         <v>0</v>
       </c>
       <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Kimberly, please stand and let us recognize it.</t>
+          <t>Shes representing the thousands of Sussex and Ken Countians who now have access to this crucial 21st century technology.</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
@@ -2326,22 +2474,25 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
         <v>0</v>
       </c>
       <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>And Im told Ken Kimberlys mother is a state employee.</t>
+          <t>Kimberly, please stand and let us recognize it.</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -2369,16 +2520,19 @@
         <v>0</v>
       </c>
       <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Got that wrong.</t>
+          <t>And Im told Ken Kimberlys mother is a state employee.</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -2406,16 +2560,19 @@
         <v>0</v>
       </c>
       <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Gotcha.</t>
+          <t>Got that wrong.</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -2443,16 +2600,19 @@
         <v>0</v>
       </c>
       <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Our technology investments are having an impact in other ways as well.</t>
+          <t>Gotcha.</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -2480,16 +2640,19 @@
         <v>0</v>
       </c>
       <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>This past year we launched Delaware One stop.</t>
+          <t>Our technology investments are having an impact in other ways as well.</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -2517,16 +2680,19 @@
         <v>0</v>
       </c>
       <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Its a convenient centralized platform that allows small businesses to easily get licensed with the state.</t>
+          <t>This past year we launched Delaware One stop.</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -2554,16 +2720,19 @@
         <v>0</v>
       </c>
       <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>We should also make it easier for everyday Delawareans to interact with their state government.</t>
+          <t>Its a convenient centralized platform that allows small businesses to easily get licensed with the state.</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -2588,23 +2757,26 @@
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>We need a one stop for Delaware citizens where you can buy your park pass register to vote, renew your license or check for snow closures.</t>
+          <t>We should also make it easier for everyday Delawareans to interact with their state government.</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
@@ -2616,32 +2788,35 @@
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K59" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Ive asked our chief information officer James Collins to lead a new effort to connect state government with Delaware and through technology.</t>
+          <t>We need a one stop for Delaware citizens where you can buy your park pass register to vote, renew your license or check for snow closures.</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D60" t="n">
         <v>0</v>
@@ -2656,7 +2831,7 @@
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -2665,20 +2840,23 @@
         <v>0</v>
       </c>
       <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>This will be a game changer for our state.</t>
+          <t>Ive asked our chief information officer James Collins to lead a new effort to connect state government with Delaware and through technology.</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61" t="n">
         <v>0</v>
@@ -2702,20 +2880,23 @@
         <v>0</v>
       </c>
       <c r="K61" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Thank you, James.</t>
+          <t>This will be a game changer for our state.</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62" t="n">
         <v>0</v>
@@ -2733,22 +2914,25 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="n">
         <v>0</v>
       </c>
       <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Together weve also invested over 30 million in the higher education economic development fund.</t>
+          <t>Thank you, James.</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -2776,16 +2960,19 @@
         <v>0</v>
       </c>
       <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>We want our colleges and universities to help drive economic growth in Delaware.</t>
+          <t>Together weve also invested over 30 million in the higher education economic development fund.</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -2813,20 +3000,23 @@
         <v>0</v>
       </c>
       <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Exciting projects are already underway at the University of Delaware Star campus were helping build a national research center for Biopharmaceuticals.</t>
+          <t>We want our colleges and universities to help drive economic growth in Delaware.</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D65" t="n">
         <v>0</v>
@@ -2844,22 +3034,25 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="n">
         <v>0</v>
       </c>
       <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>It will encourage scientists and entrepreneurs to innovate right here in Delaware at Delaware Tech.</t>
+          <t>Exciting projects are already underway at the University of Delaware Star campus were helping build a national research center for Biopharmaceuticals.</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -2887,20 +3080,23 @@
         <v>0</v>
       </c>
       <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>An automotive center in Georgetown and a training center in Middletown will help meet the workforce needs of our employers and at Delaware State University, they have the first and only H B C U aviation program in the country and were replacing and expanding the aircraft fleet there used to train students.</t>
+          <t>It will encourage scientists and entrepreneurs to innovate right here in Delaware at Delaware Tech.</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D67" t="n">
         <v>0</v>
@@ -2918,26 +3114,29 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="n">
         <v>0</v>
       </c>
       <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Id also like to welcome Dr. Tony Allen, who was sworn in this morning as Delaware States new president.</t>
+          <t>An automotive center in Georgetown and a training center in Middletown will help meet the workforce needs of our employers and at Delaware State University, they have the first and only H B C U aviation program in the country and were replacing and expanding the aircraft fleet there used to train students.</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68" t="n">
         <v>0</v>
@@ -2961,16 +3160,19 @@
         <v>0</v>
       </c>
       <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Congratulations Tony.</t>
+          <t>Id also like to welcome Dr. Tony Allen, who was sworn in this morning as Delaware States new president.</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -2998,16 +3200,19 @@
         <v>0</v>
       </c>
       <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>We all know Tony, Dr. Allen, excuse me, and he will be a great leader at Delaware State University.</t>
+          <t>Congratulations Tony.</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -3029,26 +3234,29 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
         <v>0</v>
       </c>
       <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Our focus through all this has been to make Delawares economy more agile, more innovative, and more sustainable.</t>
+          <t>We all know Tony, Dr. Allen, excuse me, and he will be a great leader at Delaware State University.</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
@@ -3060,32 +3268,35 @@
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="n">
         <v>0</v>
       </c>
       <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>At the end of three years as your governor, Im pleased to report that the state of our state is strong and getting stronger.</t>
+          <t>Our focus through all this has been to make Delawares economy more agile, more innovative, and more sustainable.</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D72" t="n">
         <v>0</v>
@@ -3094,35 +3305,38 @@
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="n">
         <v>0</v>
       </c>
       <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>But were not stopping there.</t>
+          <t>At the end of three years as your governor, Im pleased to report that the state of our state is strong and getting stronger.</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D73" t="n">
         <v>0</v>
@@ -3140,22 +3354,25 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="n">
         <v>0</v>
       </c>
       <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>In my budget next week were proposing 50 million in capital investments to further strengthen our economic infrastructure.</t>
+          <t>But were not stopping there.</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -3183,16 +3400,19 @@
         <v>0</v>
       </c>
       <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>These investments are designed to shift our economy into a higher gear.</t>
+          <t>In my budget next week were proposing 50 million in capital investments to further strengthen our economic infrastructure.</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -3220,26 +3440,29 @@
         <v>0</v>
       </c>
       <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Many emerging companies have outgrown the experimental station or the STAR campus in Newark, so were investing in lab space where they can keep growing here in Delaware.</t>
+          <t>These investments are designed to shift our economy into a higher gear.</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D76" t="n">
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76" t="n">
         <v>0</v>
@@ -3251,26 +3474,29 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="n">
         <v>0</v>
       </c>
       <c r="K76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Well create a site readiness fund so we can quickly convert existing properties to meet the needs of prospective employers and well expand the successful Edge Grant program to encourage even more small businesses to grow and innovate.</t>
+          <t>Many emerging companies have outgrown the experimental station or the STAR campus in Newark, so were investing in lab space where they can keep growing here in Delaware.</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D77" t="n">
         <v>0</v>
@@ -3288,26 +3514,29 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
         <v>0</v>
       </c>
       <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Our goal is simple.</t>
+          <t>Well create a site readiness fund so we can quickly convert existing properties to meet the needs of prospective employers and well expand the successful Edge Grant program to encourage even more small businesses to grow and innovate.</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D78" t="n">
         <v>0</v>
@@ -3325,26 +3554,29 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
         <v>0</v>
       </c>
       <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>We want companies to start here, to grow here and to stay here.</t>
+          <t>Our goal is simple.</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D79" t="n">
         <v>0</v>
@@ -3356,32 +3588,35 @@
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
         <v>0</v>
       </c>
       <c r="K79" t="n">
         <v>0</v>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>While strengthening our economy has been a high priority, it hasnt been our only focus.</t>
+          <t>We want companies to start here, to grow here and to stay here.</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D80" t="n">
         <v>0</v>
@@ -3390,72 +3625,78 @@
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="n">
         <v>0</v>
       </c>
       <c r="K80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Three years ago, we promised to make Delawareans feel safer in their neighborhoods and our cities and towns.</t>
+          <t>While strengthening our economy has been a high priority, it hasnt been our only focus.</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D81" t="n">
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F81" t="n">
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="n">
         <v>0</v>
       </c>
       <c r="K81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>And thanks to representative Bens and members of the General Assembly on both sides of the aisle, we passed the Bow Biden Gun Violence Prevention Act and another similar red flag law.</t>
+          <t>Three years ago, we promised to make Delawareans feel safer in their neighborhoods and our cities and towns.</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D82" t="n">
         <v>0</v>
@@ -3473,26 +3714,29 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="n">
         <v>0</v>
       </c>
       <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>The idea behind both pieces of legislation was really simple.</t>
+          <t>And thanks to representative Bens and members of the General Assembly on both sides of the aisle, we passed the Bow Biden Gun Violence Prevention Act and another similar red flag law.</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D83" t="n">
         <v>0</v>
@@ -3510,26 +3754,29 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="n">
         <v>0</v>
       </c>
       <c r="K83" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>We should keep firearms out of the hands of those intent on harming themselves or others.</t>
+          <t>The idea behind both pieces of legislation was really simple.</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D84" t="n">
         <v>0</v>
@@ -3544,29 +3791,32 @@
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
         <v>0</v>
       </c>
       <c r="K84" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Family members and mental health providers can now raise a concern and a judge determines whether to intervene.</t>
+          <t>We should keep firearms out of the hands of those intent on harming themselves or others.</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D85" t="n">
         <v>0</v>
@@ -3584,26 +3834,29 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="n">
         <v>0</v>
       </c>
       <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>These laws have already been used 35 times to date and they have helped save lives.</t>
+          <t>Family members and mental health providers can now raise a concern and a judge determines whether to intervene.</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D86" t="n">
         <v>0</v>
@@ -3612,35 +3865,38 @@
         <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G86" t="n">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="n">
         <v>0</v>
       </c>
       <c r="K86" t="n">
+        <v>0</v>
+      </c>
+      <c r="L86" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>But we know we can do more and I encourage every member in this chamber to support legislation that would ban so-called ghost guns and high capacity magazines.</t>
+          <t>These laws have already been used 35 times to date and they have helped save lives.</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D87" t="n">
         <v>0</v>
@@ -3655,29 +3911,32 @@
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L87" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>These bills are just common sense.</t>
+          <t>But we know we can do more and I encourage every member in this chamber to support legislation that would ban so-called ghost guns and high capacity magazines.</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D88" t="n">
         <v>0</v>
@@ -3692,25 +3951,28 @@
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="n">
         <v>0</v>
       </c>
       <c r="K88" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Were also working with you to strengthen our school safety infrastructure.</t>
+          <t>These bills are just common sense.</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -3738,16 +4000,19 @@
         <v>0</v>
       </c>
       <c r="K89" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Over the past two years, we worked with represent Jakes and represent him short and others to invest 10 million in a new school safety and security fund districts or training their personnel and using the latest technology to keep our children safe in school.</t>
+          <t>Were also working with you to strengthen our school safety infrastructure.</t>
         </is>
       </c>
       <c r="C90" t="n">
@@ -3757,7 +4022,7 @@
         <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90" t="n">
         <v>0</v>
@@ -3775,20 +4040,23 @@
         <v>0</v>
       </c>
       <c r="K90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L90" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>We shouldnt lose sight of the progress weve made though over the last decade, violent crime in Delaware has fallen, fallen by 27% and property crime is down 25%, but we all know we can do better through the Family Services Cabinet Council, were partnering with Mayor Zuki with Wilmington Police Chief Tracy and Attorney General Jennings.</t>
+          <t>Over the past two years, we worked with represent Jakes and represent him short and others to invest 10 million in a new school safety and security fund districts or training their personnel and using the latest technology to keep our children safe in school.</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D91" t="n">
         <v>0</v>
@@ -3797,13 +4065,13 @@
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -3812,20 +4080,23 @@
         <v>0</v>
       </c>
       <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>The initiative is called Group Violence Intervention or gvi.</t>
+          <t>We shouldnt lose sight of the progress weve made though over the last decade, violent crime in Delaware has fallen, fallen by 27% and property crime is down 25%, but we all know we can do better through the Family Services Cabinet Council, were partnering with Mayor Zuki with Wilmington Police Chief Tracy and Attorney General Jennings.</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D92" t="n">
         <v>0</v>
@@ -3837,28 +4108,31 @@
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="n">
         <v>0</v>
       </c>
       <c r="K92" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Were talking directly to Wilmingtons most violent offenders, but with a new and different approach.</t>
+          <t>The initiative is called Group Violence Intervention or gvi.</t>
         </is>
       </c>
       <c r="C93" t="n">
@@ -3871,10 +4145,10 @@
         <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3886,20 +4160,23 @@
         <v>0</v>
       </c>
       <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Were challenging them to put down their guns and offering an alternative to a life of crime and violence.</t>
+          <t>Were talking directly to Wilmingtons most violent offenders, but with a new and different approach.</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D94" t="n">
         <v>0</v>
@@ -3917,26 +4194,29 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="n">
         <v>0</v>
       </c>
       <c r="K94" t="n">
+        <v>0</v>
+      </c>
+      <c r="L94" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>We need a similar approach here in our capital City Attorney General Jennings and Mayor Zuki, thank you for helping us keep our neighborhoods safe.</t>
+          <t>Were challenging them to put down their guns and offering an alternative to a life of crime and violence.</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D95" t="n">
         <v>0</v>
@@ -3954,32 +4234,35 @@
         <v>1</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="n">
         <v>0</v>
       </c>
       <c r="K95" t="n">
+        <v>0</v>
+      </c>
+      <c r="L95" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Last year I signed an executive order to help ex offenders more successfully reenter their communities.</t>
+          <t>We need a similar approach here in our capital City Attorney General Jennings and Mayor Zuki, thank you for helping us keep our neighborhoods safe.</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D96" t="n">
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96" t="n">
         <v>0</v>
@@ -3991,26 +4274,29 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="n">
         <v>0</v>
       </c>
       <c r="K96" t="n">
+        <v>0</v>
+      </c>
+      <c r="L96" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>This year, all inmates sentenced to more than a year in custody get individualized plans as soon as they enter prison.</t>
+          <t>Last year I signed an executive order to help ex offenders more successfully reenter their communities.</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D97" t="n">
         <v>0</v>
@@ -4019,7 +4305,7 @@
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G97" t="n">
         <v>0</v>
@@ -4028,26 +4314,29 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="n">
         <v>0</v>
       </c>
       <c r="K97" t="n">
+        <v>0</v>
+      </c>
+      <c r="L97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>The plans focus on drug treatment, on education and job skills.</t>
+          <t>This year, all inmates sentenced to more than a year in custody get individualized plans as soon as they enter prison.</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D98" t="n">
         <v>0</v>
@@ -4059,32 +4348,35 @@
         <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="n">
         <v>0</v>
       </c>
       <c r="K98" t="n">
+        <v>0</v>
+      </c>
+      <c r="L98" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Its in all of our interest that these individuals leave prison better than when they entered.</t>
+          <t>The plans focus on drug treatment, on education and job skills.</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D99" t="n">
         <v>0</v>
@@ -4108,20 +4400,23 @@
         <v>0</v>
       </c>
       <c r="K99" t="n">
+        <v>0</v>
+      </c>
+      <c r="L99" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Weve made a lot of investments in our correctional system over the past three years and Commissioner de Mattus is committed to continuing those improvements starting with the prison healthcare system.</t>
+          <t>Its in all of our interest that these individuals leave prison better than when they entered.</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D100" t="n">
         <v>0</v>
@@ -4139,32 +4434,35 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="n">
         <v>0</v>
       </c>
       <c r="K100" t="n">
+        <v>0</v>
+      </c>
+      <c r="L100" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>No one is working harder than Lieutenant Governor Hall Long to combat our opioid epidemic.</t>
+          <t>Weve made a lot of investments in our correctional system over the past three years and Commissioner de Mattus is committed to continuing those improvements starting with the prison healthcare system.</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D101" t="n">
         <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101" t="n">
         <v>0</v>
@@ -4173,29 +4471,32 @@
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="n">
         <v>0</v>
       </c>
       <c r="K101" t="n">
+        <v>0</v>
+      </c>
+      <c r="L101" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Through the Behavioral Health Consortium, the Lieutenant Governor and others have given Naloxone to more than 7,000 Delawareans.</t>
+          <t>No one is working harder than Lieutenant Governor Hall Long to combat our opioid epidemic.</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D102" t="n">
         <v>0</v>
@@ -4213,22 +4514,25 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="n">
         <v>0</v>
       </c>
       <c r="K102" t="n">
+        <v>0</v>
+      </c>
+      <c r="L102" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>She and a committed group of volunteers led by our friend Dr. Sandy Gibney, knock on doors and visit homeless encampments in the middle of the night to personally deliver a naloxone.</t>
+          <t>Through the Behavioral Health Consortium, the Lieutenant Governor and others have given Naloxone to more than 7,000 Delawareans.</t>
         </is>
       </c>
       <c r="C103" t="n">
@@ -4256,20 +4560,23 @@
         <v>0</v>
       </c>
       <c r="K103" t="n">
+        <v>0</v>
+      </c>
+      <c r="L103" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>I understand Dr. Gibney is with us today.</t>
+          <t>She and a committed group of volunteers led by our friend Dr. Sandy Gibney, knock on doors and visit homeless encampments in the middle of the night to personally deliver a naloxone.</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D104" t="n">
         <v>0</v>
@@ -4278,31 +4585,34 @@
         <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G104" t="n">
         <v>0</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="n">
         <v>0</v>
       </c>
       <c r="K104" t="n">
+        <v>0</v>
+      </c>
+      <c r="L104" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Dr. Gibney, thank you for your great work.</t>
+          <t>I understand Dr. Gibney is with us today.</t>
         </is>
       </c>
       <c r="C105" t="n">
@@ -4330,23 +4640,26 @@
         <v>0</v>
       </c>
       <c r="K105" t="n">
+        <v>0</v>
+      </c>
+      <c r="L105" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Because of the Lieutenant Governors leadership on the Behavioral Health Consortium, thousands of Delawareans have gotten a second chance at life.</t>
+          <t>Dr. Gibney, thank you for your great work.</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E106" t="n">
         <v>0</v>
@@ -4358,35 +4671,38 @@
         <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="n">
         <v>0</v>
       </c>
       <c r="K106" t="n">
+        <v>0</v>
+      </c>
+      <c r="L106" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Weve also established the first overdose system of care in the nation, expanding access to treatment for those who are ready to seek it.</t>
+          <t>Because of the Lieutenant Governors leadership on the Behavioral Health Consortium, thousands of Delawareans have gotten a second chance at life.</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D107" t="n">
         <v>0</v>
       </c>
       <c r="E107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F107" t="n">
         <v>0</v>
@@ -4398,26 +4714,29 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="n">
         <v>0</v>
       </c>
       <c r="K107" t="n">
+        <v>0</v>
+      </c>
+      <c r="L107" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>There is much, much more work to do on this epidemic, but thanks to our lieutenant governor and Dr. Walker, were becoming a model for the country.</t>
+          <t>Weve also established the first overdose system of care in the nation, expanding access to treatment for those who are ready to seek it.</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D108" t="n">
         <v>0</v>
@@ -4429,32 +4748,35 @@
         <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="n">
         <v>0</v>
       </c>
       <c r="K108" t="n">
+        <v>0</v>
+      </c>
+      <c r="L108" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>I want to take a moment if I might, to highlight the good work of my Tracy.</t>
+          <t>There is much, much more work to do on this epidemic, but thanks to our lieutenant governor and Dr. Walker, were becoming a model for the country.</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D109" t="n">
         <v>0</v>
@@ -4469,66 +4791,72 @@
         <v>0</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="n">
         <v>0</v>
       </c>
       <c r="K109" t="n">
+        <v>0</v>
+      </c>
+      <c r="L109" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Tracys first Chance Initiative focuses on hunger, trauma, and early literacy.</t>
+          <t>I want to take a moment if I might, to highlight the good work of my Tracy.</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F110" t="n">
         <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="n">
         <v>0</v>
       </c>
       <c r="K110" t="n">
+        <v>0</v>
+      </c>
+      <c r="L110" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>She also wanted me to acknowledge everyone, people in this room and and outside of this room who are working with her on these important issues.</t>
+          <t>Tracys first Chance Initiative focuses on hunger, trauma, and early literacy.</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D111" t="n">
         <v>0</v>
@@ -4543,7 +4871,7 @@
         <v>0</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -4552,20 +4880,23 @@
         <v>0</v>
       </c>
       <c r="K111" t="n">
+        <v>0</v>
+      </c>
+      <c r="L111" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>In partnership with the food Bank, with our libraries and other nonprofits, Tracy is leading efforts to ensure that our children come to school ready to learn and thrive.</t>
+          <t>She also wanted me to acknowledge everyone, people in this room and and outside of this room who are working with her on these important issues.</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D112" t="n">
         <v>0</v>
@@ -4577,32 +4908,35 @@
         <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="n">
         <v>0</v>
       </c>
       <c r="K112" t="n">
+        <v>0</v>
+      </c>
+      <c r="L112" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>One of the best ways to achieve that is a simple one.</t>
+          <t>In partnership with the food Bank, with our libraries and other nonprofits, Tracy is leading efforts to ensure that our children come to school ready to learn and thrive.</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D113" t="n">
         <v>0</v>
@@ -4617,29 +4951,32 @@
         <v>0</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="n">
         <v>0</v>
       </c>
       <c r="K113" t="n">
+        <v>0</v>
+      </c>
+      <c r="L113" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Give our children books.</t>
+          <t>One of the best ways to achieve that is a simple one.</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D114" t="n">
         <v>0</v>
@@ -4654,35 +4991,38 @@
         <v>0</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="n">
         <v>0</v>
       </c>
       <c r="K114" t="n">
+        <v>0</v>
+      </c>
+      <c r="L114" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Im proud to announce that with the leadership of State librarian Annie Norman, whos fantastic, were launching a pilot of the Dolly Parton Imagination Library.</t>
+          <t>Give our children books.</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D115" t="n">
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F115" t="n">
         <v>0</v>
@@ -4691,7 +5031,7 @@
         <v>0</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -4700,20 +5040,23 @@
         <v>0</v>
       </c>
       <c r="K115" t="n">
+        <v>0</v>
+      </c>
+      <c r="L115" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Participating children will receive one book each month from birth to five years old, free of charge.</t>
+          <t>Im proud to announce that with the leadership of State librarian Annie Norman, whos fantastic, were launching a pilot of the Dolly Parton Imagination Library.</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D116" t="n">
         <v>0</v>
@@ -4731,26 +5074,29 @@
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="n">
         <v>0</v>
       </c>
       <c r="K116" t="n">
+        <v>0</v>
+      </c>
+      <c r="L116" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>The program will be centered in 13 public libraries covering thousands of children in five targeted school districts.</t>
+          <t>Participating children will receive one book each month from birth to five years old, free of charge.</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D117" t="n">
         <v>0</v>
@@ -4768,22 +5114,25 @@
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="n">
         <v>0</v>
       </c>
       <c r="K117" t="n">
+        <v>0</v>
+      </c>
+      <c r="L117" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Were also working with Delawares pediatrician to get books to families right from the start.</t>
+          <t>The program will be centered in 13 public libraries covering thousands of children in five targeted school districts.</t>
         </is>
       </c>
       <c r="C118" t="n">
@@ -4811,16 +5160,19 @@
         <v>0</v>
       </c>
       <c r="K118" t="n">
+        <v>0</v>
+      </c>
+      <c r="L118" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>These efforts will help families build home libraries that could span generations.</t>
+          <t>Were also working with Delawares pediatrician to get books to families right from the start.</t>
         </is>
       </c>
       <c r="C119" t="n">
@@ -4848,20 +5200,23 @@
         <v>0</v>
       </c>
       <c r="K119" t="n">
+        <v>0</v>
+      </c>
+      <c r="L119" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Through Tracys efforts weve also received a $10,000 grant to build on Delawares success in promoting school breakfast.</t>
+          <t>These efforts will help families build home libraries that could span generations.</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D120" t="n">
         <v>0</v>
@@ -4879,26 +5234,29 @@
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="n">
         <v>0</v>
       </c>
       <c r="K120" t="n">
+        <v>0</v>
+      </c>
+      <c r="L120" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Every school in Delaware that provides free lunch now offers breakfast, and were working on making food available for students in after school and summer programs as well so that no one will go hungry.</t>
+          <t>Through Tracys efforts weve also received a $10,000 grant to build on Delawares success in promoting school breakfast.</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D121" t="n">
         <v>0</v>
@@ -4916,26 +5274,29 @@
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="n">
         <v>0</v>
       </c>
       <c r="K121" t="n">
+        <v>0</v>
+      </c>
+      <c r="L121" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Theres a lot.</t>
+          <t>Every school in Delaware that provides free lunch now offers breakfast, and were working on making food available for students in after school and summer programs as well so that no one will go hungry.</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D122" t="n">
         <v>0</v>
@@ -4947,28 +5308,31 @@
         <v>0</v>
       </c>
       <c r="G122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" t="n">
         <v>0</v>
       </c>
       <c r="K122" t="n">
+        <v>0</v>
+      </c>
+      <c r="L122" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Theres a lot more to say about Tracys First Chance initiative and she wanted me to tell you that she hopes to have the chance to talk to each of you directly about our work.</t>
+          <t>Theres a lot.</t>
         </is>
       </c>
       <c r="C123" t="n">
@@ -4996,20 +5360,23 @@
         <v>0</v>
       </c>
       <c r="K123" t="n">
+        <v>0</v>
+      </c>
+      <c r="L123" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>I would recommend that you do that.</t>
+          <t>Theres a lot more to say about Tracys First Chance initiative and she wanted me to tell you that she hopes to have the chance to talk to each of you directly about our work.</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D124" t="n">
         <v>0</v>
@@ -5027,26 +5394,29 @@
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="n">
         <v>0</v>
       </c>
       <c r="K124" t="n">
+        <v>0</v>
+      </c>
+      <c r="L124" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Thank you Tracy, for everything that youre doing for our state.</t>
+          <t>I would recommend that you do that.</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D125" t="n">
         <v>0</v>
@@ -5061,25 +5431,28 @@
         <v>0</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="n">
         <v>0</v>
       </c>
       <c r="K125" t="n">
+        <v>0</v>
+      </c>
+      <c r="L125" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>I think we can all agree that our children should be our focus and there are perhaps no children more vulnerable than those in our foster care system.</t>
+          <t>Thank you Tracy, for everything that youre doing for our state.</t>
         </is>
       </c>
       <c r="C126" t="n">
@@ -5098,35 +5471,38 @@
         <v>0</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="n">
         <v>0</v>
       </c>
       <c r="K126" t="n">
+        <v>0</v>
+      </c>
+      <c r="L126" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Mighta Barrios is in the audience today.</t>
+          <t>I think we can all agree that our children should be our focus and there are perhaps no children more vulnerable than those in our foster care system.</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D127" t="n">
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127" t="n">
         <v>0</v>
@@ -5138,22 +5514,25 @@
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" t="n">
         <v>0</v>
       </c>
       <c r="K127" t="n">
+        <v>0</v>
+      </c>
+      <c r="L127" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Mighta spent several years in foster care and graduated from St.Georges.</t>
+          <t>Mighta Barrios is in the audience today.</t>
         </is>
       </c>
       <c r="C128" t="n">
@@ -5181,16 +5560,19 @@
         <v>0</v>
       </c>
       <c r="K128" t="n">
+        <v>0</v>
+      </c>
+      <c r="L128" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Today shes a sophomore at Delaware State and president of a campus organization that mentors children in foster care.</t>
+          <t>Mighta spent several years in foster care and graduated from St.Georges.</t>
         </is>
       </c>
       <c r="C129" t="n">
@@ -5218,20 +5600,23 @@
         <v>0</v>
       </c>
       <c r="K129" t="n">
+        <v>0</v>
+      </c>
+      <c r="L129" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Mighta has to, has had to pull together the funds to pay for college, but in keeping with Tracys goal of giving every child a first chance of success, were working with representatives Griffith and Longhurst and Senators Poor and Lockman to help students like mighta.</t>
+          <t>Today shes a sophomore at Delaware State and president of a campus organization that mentors children in foster care.</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D130" t="n">
         <v>0</v>
@@ -5240,35 +5625,38 @@
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" t="n">
         <v>0</v>
       </c>
       <c r="K130" t="n">
+        <v>0</v>
+      </c>
+      <c r="L130" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Our proposal will be to waive tuition and fees at Delaware Tech, Delaware State or the University of Delaware for students who age out of foster care.</t>
+          <t>Mighta has to, has had to pull together the funds to pay for college, but in keeping with Tracys goal of giving every child a first chance of success, were working with representatives Griffith and Longhurst and Senators Poor and Lockman to help students like mighta.</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D131" t="n">
         <v>0</v>
@@ -5280,32 +5668,35 @@
         <v>0</v>
       </c>
       <c r="G131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" t="n">
         <v>0</v>
       </c>
       <c r="K131" t="n">
+        <v>0</v>
+      </c>
+      <c r="L131" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>I was looking for Mida to see there.</t>
+          <t>Our proposal will be to waive tuition and fees at Delaware Tech, Delaware State or the University of Delaware for students who age out of foster care.</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D132" t="n">
         <v>0</v>
@@ -5317,10 +5708,10 @@
         <v>0</v>
       </c>
       <c r="G132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -5329,16 +5720,19 @@
         <v>0</v>
       </c>
       <c r="K132" t="n">
+        <v>0</v>
+      </c>
+      <c r="L132" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Mida, thank you very much for your great work.</t>
+          <t>I was looking for Mida to see there.</t>
         </is>
       </c>
       <c r="C133" t="n">
@@ -5366,20 +5760,23 @@
         <v>0</v>
       </c>
       <c r="K133" t="n">
+        <v>0</v>
+      </c>
+      <c r="L133" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Were gonna have to bring you back every year Mida.</t>
+          <t>Mida, thank you very much for your great work.</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D134" t="n">
         <v>0</v>
@@ -5397,22 +5794,25 @@
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134" t="n">
         <v>0</v>
       </c>
       <c r="K134" t="n">
+        <v>0</v>
+      </c>
+      <c r="L134" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Nothing causes more fear or anxiety than when you or a loved one gets sick.</t>
+          <t>Were gonna have to bring you back every year Mida.</t>
         </is>
       </c>
       <c r="C135" t="n">
@@ -5440,26 +5840,29 @@
         <v>0</v>
       </c>
       <c r="K135" t="n">
+        <v>0</v>
+      </c>
+      <c r="L135" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Thanks to legislation sponsored by Representative Siegfried, weve reduced rates on the Affordable Care Act health insurance marketplace by almost 20% this year.</t>
+          <t>Nothing causes more fear or anxiety than when you or a loved one gets sick.</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D136" t="n">
         <v>0</v>
       </c>
       <c r="E136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F136" t="n">
         <v>0</v>
@@ -5471,22 +5874,25 @@
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136" t="n">
         <v>0</v>
       </c>
       <c r="K136" t="n">
+        <v>0</v>
+      </c>
+      <c r="L136" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Because of that, while ACA enrollment rates have declined in other states, we saw more than 6% increase in Delawares buying health insurance on the exchange.</t>
+          <t>Thanks to legislation sponsored by Representative Siegfried, weve reduced rates on the Affordable Care Act health insurance marketplace by almost 20% this year.</t>
         </is>
       </c>
       <c r="C137" t="n">
@@ -5499,7 +5905,7 @@
         <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G137" t="n">
         <v>0</v>
@@ -5514,16 +5920,19 @@
         <v>0</v>
       </c>
       <c r="K137" t="n">
+        <v>0</v>
+      </c>
+      <c r="L137" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>We have seen significant progress since the passage of the Affordable Care Act a decade ago.</t>
+          <t>Because of that, while ACA enrollment rates have declined in other states, we saw more than 6% increase in Delawares buying health insurance on the exchange.</t>
         </is>
       </c>
       <c r="C138" t="n">
@@ -5551,20 +5960,23 @@
         <v>0</v>
       </c>
       <c r="K138" t="n">
+        <v>0</v>
+      </c>
+      <c r="L138" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Today, almost 95% of doans have health insurance and thats a big deal   With the Lieutenant Governors Challenge 2.0.</t>
+          <t>We have seen significant progress since the passage of the Affordable Care Act a decade ago.</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D139" t="n">
         <v>0</v>
@@ -5579,25 +5991,28 @@
         <v>0</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" t="n">
         <v>0</v>
       </c>
       <c r="K139" t="n">
+        <v>0</v>
+      </c>
+      <c r="L139" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Lieutenant Governor Hall Long is making sure children and adults are developing habits that will help both their mental and physical health.</t>
+          <t>Today, almost 95% of doans have health insurance and thats a big deal   With the Lieutenant Governors Challenge 2.0.</t>
         </is>
       </c>
       <c r="C140" t="n">
@@ -5625,20 +6040,23 @@
         <v>0</v>
       </c>
       <c r="K140" t="n">
+        <v>0</v>
+      </c>
+      <c r="L140" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Access to quality healthcare is also about having doctors in your community.</t>
+          <t>Lieutenant Governor Hall Long is making sure children and adults are developing habits that will help both their mental and physical health.</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D141" t="n">
         <v>0</v>
@@ -5656,26 +6074,29 @@
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J141" t="n">
         <v>0</v>
       </c>
       <c r="K141" t="n">
+        <v>0</v>
+      </c>
+      <c r="L141" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>In some areas of our state, we simply dont have enough physicians, and so in partnership with Representative Bens, we will create a healthcare provider loan repayment program.</t>
+          <t>Access to quality healthcare is also about having doctors in your community.</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D142" t="n">
         <v>0</v>
@@ -5693,22 +6114,25 @@
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J142" t="n">
         <v>0</v>
       </c>
       <c r="K142" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L142" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>We want to attract some of the best and brightest young doctors to areas where theyre needed most in our state.</t>
+          <t>In some areas of our state, we simply dont have enough physicians, and so in partnership with Representative Bens, we will create a healthcare provider loan repayment program.</t>
         </is>
       </c>
       <c r="C143" t="n">
@@ -5727,7 +6151,7 @@
         <v>0</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -5736,16 +6160,19 @@
         <v>0</v>
       </c>
       <c r="K143" t="n">
+        <v>0</v>
+      </c>
+      <c r="L143" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>A healthy Delaware starts with our most basic and valuable resource, our water.</t>
+          <t>We want to attract some of the best and brightest young doctors to areas where theyre needed most in our state.</t>
         </is>
       </c>
       <c r="C144" t="n">
@@ -5764,7 +6191,7 @@
         <v>0</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -5773,20 +6200,23 @@
         <v>0</v>
       </c>
       <c r="K144" t="n">
+        <v>0</v>
+      </c>
+      <c r="L144" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Its critical that we protect that resource for future generations.</t>
+          <t>A healthy Delaware starts with our most basic and valuable resource, our water.</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D145" t="n">
         <v>0</v>
@@ -5801,29 +6231,32 @@
         <v>0</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J145" t="n">
         <v>0</v>
       </c>
       <c r="K145" t="n">
+        <v>0</v>
+      </c>
+      <c r="L145" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>From the Brandy Wine to Rohoboth Bay to trap on, we have beautiful natural areas in our state and we all agree that families and blades here in Dover and across our state de deserve to know that the water coming out of their faucets is clean.</t>
+          <t>Its critical that we protect that resource for future generations.</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D146" t="n">
         <v>0</v>
@@ -5838,7 +6271,7 @@
         <v>0</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>1</v>
@@ -5847,26 +6280,29 @@
         <v>0</v>
       </c>
       <c r="K146" t="n">
+        <v>0</v>
+      </c>
+      <c r="L146" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Thats why were partnering with Representative Longhurst and Senator McBride to invest 50 million in clean water.</t>
+          <t>From the Brandy Wine to Rohoboth Bay to trap on, we have beautiful natural areas in our state and we all agree that families and blades here in Dover and across our state de deserve to know that the water coming out of their faucets is clean.</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D147" t="n">
         <v>0</v>
       </c>
       <c r="E147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F147" t="n">
         <v>0</v>
@@ -5878,22 +6314,25 @@
         <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J147" t="n">
         <v>0</v>
       </c>
       <c r="K147" t="n">
+        <v>0</v>
+      </c>
+      <c r="L147" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Building off of the work of Center Townsends Clean Water Task Force will create a Clean Water trust fund and well have a special focus on hard to serve low income communities across our state,   Taking care of our environment as one of the most important obligations that we have as elected officials.</t>
+          <t>Thats why were partnering with Representative Longhurst and Senator McBride to invest 50 million in clean water.</t>
         </is>
       </c>
       <c r="C148" t="n">
@@ -5912,7 +6351,7 @@
         <v>0</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -5921,20 +6360,23 @@
         <v>0</v>
       </c>
       <c r="K148" t="n">
+        <v>0</v>
+      </c>
+      <c r="L148" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>This is an historic investment that will make a big difference in the lives of Delawareans, in our economy and in our environment.</t>
+          <t>Building off of the work of Center Townsends Clean Water Task Force will create a Clean Water trust fund and well have a special focus on hard to serve low income communities across our state,   Taking care of our environment as one of the most important obligations that we have as elected officials.</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D149" t="n">
         <v>0</v>
@@ -5946,32 +6388,35 @@
         <v>0</v>
       </c>
       <c r="G149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J149" t="n">
         <v>0</v>
       </c>
       <c r="K149" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L149" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>I hope youll join me in supporting this proposal.</t>
+          <t>This is an historic investment that will make a big difference in the lives of Delawareans, in our economy and in our environment.</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D150" t="n">
         <v>0</v>
@@ -5986,35 +6431,38 @@
         <v>0</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J150" t="n">
         <v>0</v>
       </c>
       <c r="K150" t="n">
+        <v>0</v>
+      </c>
+      <c r="L150" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Even when youre governor making Delaware better starts with the little things it drives my security detail crazy, but you often see me walking down the street, youll see me stopping to pick up a plastic bag or an empty bottle of soda.</t>
+          <t>I hope youll join me in supporting this proposal.</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D151" t="n">
         <v>0</v>
       </c>
       <c r="E151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F151" t="n">
         <v>0</v>
@@ -6023,29 +6471,32 @@
         <v>0</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J151" t="n">
         <v>0</v>
       </c>
       <c r="K151" t="n">
+        <v>0</v>
+      </c>
+      <c r="L151" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>We have a litter problem in Delaware and Im determined to stop it.</t>
+          <t>Even when youre governor making Delaware better starts with the little things it drives my security detail crazy, but you often see me walking down the street, youll see me stopping to pick up a plastic bag or an empty bottle of soda.</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D152" t="n">
         <v>0</v>
@@ -6057,32 +6508,35 @@
         <v>0</v>
       </c>
       <c r="G152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J152" t="n">
         <v>0</v>
       </c>
       <c r="K152" t="n">
+        <v>0</v>
+      </c>
+      <c r="L152" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Last year we launched the Keep de Litter free campaign to get citys towns and community groups on board.</t>
+          <t>We have a litter problem in Delaware and Im determined to stop it.</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D153" t="n">
         <v>0</v>
@@ -6094,32 +6548,35 @@
         <v>0</v>
       </c>
       <c r="G153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J153" t="n">
         <v>0</v>
       </c>
       <c r="K153" t="n">
+        <v>0</v>
+      </c>
+      <c r="L153" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>And Secretary Cohen and her team have partnered with Goodwill to start what we call the work a day, earn a pay program.</t>
+          <t>Last year we launched the Keep de Litter free campaign to get citys towns and community groups on board.</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D154" t="n">
         <v>0</v>
@@ -6143,20 +6600,23 @@
         <v>0</v>
       </c>
       <c r="K154" t="n">
+        <v>0</v>
+      </c>
+      <c r="L154" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>We hire folks struggling to get back on their feet to pick up litter several days a week in all three counties.</t>
+          <t>And Secretary Cohen and her team have partnered with Goodwill to start what we call the work a day, earn a pay program.</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D155" t="n">
         <v>0</v>
@@ -6171,29 +6631,32 @@
         <v>0</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J155" t="n">
         <v>0</v>
       </c>
       <c r="K155" t="n">
+        <v>0</v>
+      </c>
+      <c r="L155" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>And through Dells leadership last year, listen to this, we picked up close to 50,000 bags of trash.</t>
+          <t>We hire folks struggling to get back on their feet to pick up litter several days a week in all three counties.</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D156" t="n">
         <v>0</v>
@@ -6217,20 +6680,23 @@
         <v>0</v>
       </c>
       <c r="K156" t="n">
+        <v>0</v>
+      </c>
+      <c r="L156" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Thank you, secretary.</t>
+          <t>And through Dells leadership last year, listen to this, we picked up close to 50,000 bags of trash.</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D157" t="n">
         <v>0</v>
@@ -6254,16 +6720,19 @@
         <v>0</v>
       </c>
       <c r="K157" t="n">
+        <v>0</v>
+      </c>
+      <c r="L157" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Starting next year, thanks to represent Brady and others.</t>
+          <t>Thank you, secretary.</t>
         </is>
       </c>
       <c r="C158" t="n">
@@ -6291,20 +6760,23 @@
         <v>0</v>
       </c>
       <c r="K158" t="n">
+        <v>0</v>
+      </c>
+      <c r="L158" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Single use plastic bags will be a thing of the past in Delaware and I think that deserves a round of applause as well.</t>
+          <t>Starting next year, thanks to represent Brady and others.</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D159" t="n">
         <v>0</v>
@@ -6319,29 +6791,32 @@
         <v>0</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J159" t="n">
         <v>0</v>
       </c>
       <c r="K159" t="n">
+        <v>0</v>
+      </c>
+      <c r="L159" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>This year were were also taking a commitment, our commitment to the environment a step further.</t>
+          <t>Single use plastic bags will be a thing of the past in Delaware and I think that deserves a round of applause as well.</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D160" t="n">
         <v>0</v>
@@ -6353,32 +6828,35 @@
         <v>0</v>
       </c>
       <c r="G160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J160" t="n">
         <v>0</v>
       </c>
       <c r="K160" t="n">
+        <v>0</v>
+      </c>
+      <c r="L160" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Over the next decade, we will plant 1 million trees across our state.</t>
+          <t>This year were were also taking a commitment, our commitment to the environment a step further.</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D161" t="n">
         <v>0</v>
@@ -6393,25 +6871,28 @@
         <v>0</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J161" t="n">
         <v>0</v>
       </c>
       <c r="K161" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L161" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Thats a tree for every Delaware.</t>
+          <t>Over the next decade, we will plant 1 million trees across our state.</t>
         </is>
       </c>
       <c r="C162" t="n">
@@ -6439,20 +6920,23 @@
         <v>0</v>
       </c>
       <c r="K162" t="n">
+        <v>0</v>
+      </c>
+      <c r="L162" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Please join us in that effort.</t>
+          <t>Thats a tree for every Delaware.</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D163" t="n">
         <v>0</v>
@@ -6473,19 +6957,22 @@
         <v>0</v>
       </c>
       <c r="J163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K163" t="n">
+        <v>0</v>
+      </c>
+      <c r="L163" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Delaware has made great strides over the last decade to reduce our reliance on fossil fuels and we should continue to be a leader on this issue.</t>
+          <t>Please join us in that effort.</t>
         </is>
       </c>
       <c r="C164" t="n">
@@ -6504,7 +6991,7 @@
         <v>0</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -6513,20 +7000,23 @@
         <v>0</v>
       </c>
       <c r="K164" t="n">
+        <v>0</v>
+      </c>
+      <c r="L164" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>We plan to work with my friend, Senator McDowell, to set a new renewable portfolio standard.</t>
+          <t>Delaware has made great strides over the last decade to reduce our reliance on fossil fuels and we should continue to be a leader on this issue.</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D165" t="n">
         <v>0</v>
@@ -6544,22 +7034,25 @@
         <v>0</v>
       </c>
       <c r="I165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J165" t="n">
         <v>0</v>
       </c>
       <c r="K165" t="n">
+        <v>0</v>
+      </c>
+      <c r="L165" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>By 2035 we want 40% of Delawares energy to come from renewable sources and we can do it.</t>
+          <t>We plan to work with my friend, Senator McDowell, to set a new renewable portfolio standard.</t>
         </is>
       </c>
       <c r="C166" t="n">
@@ -6587,20 +7080,23 @@
         <v>0</v>
       </c>
       <c r="K166" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L166" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>And finally, thanks to all of you.</t>
+          <t>By 2035 we want 40% of Delawares energy to come from renewable sources and we can do it.</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D167" t="n">
         <v>0</v>
@@ -6624,16 +7120,19 @@
         <v>0</v>
       </c>
       <c r="K167" t="n">
+        <v>0</v>
+      </c>
+      <c r="L167" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Weve preserved 134,000 acres of farmland.</t>
+          <t>And finally, thanks to all of you.</t>
         </is>
       </c>
       <c r="C168" t="n">
@@ -6643,7 +7142,7 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168" t="n">
         <v>0</v>
@@ -6661,16 +7160,19 @@
         <v>0</v>
       </c>
       <c r="K168" t="n">
+        <v>0</v>
+      </c>
+      <c r="L168" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>25% of Delawares family farms are now preserved forever.</t>
+          <t>Weve preserved 134,000 acres of farmland.</t>
         </is>
       </c>
       <c r="C169" t="n">
@@ -6698,16 +7200,19 @@
         <v>0</v>
       </c>
       <c r="K169" t="n">
+        <v>0</v>
+      </c>
+      <c r="L169" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Delawares and visitors alike take pride in our natural environment.</t>
+          <t>25% of Delawares family farms are now preserved forever.</t>
         </is>
       </c>
       <c r="C170" t="n">
@@ -6726,29 +7231,32 @@
         <v>0</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J170" t="n">
         <v>0</v>
       </c>
       <c r="K170" t="n">
+        <v>0</v>
+      </c>
+      <c r="L170" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>From our beaches to our inland bays to our award-winning park system.</t>
+          <t>Delawares and visitors alike take pride in our natural environment.</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D171" t="n">
         <v>0</v>
@@ -6760,32 +7268,35 @@
         <v>0</v>
       </c>
       <c r="G171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
       </c>
       <c r="I171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J171" t="n">
         <v>0</v>
       </c>
       <c r="K171" t="n">
+        <v>0</v>
+      </c>
+      <c r="L171" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>In 2018, we welcomed a record 9.2 million visitors to our state.</t>
+          <t>From our beaches to our inland bays to our award-winning park system.</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D172" t="n">
         <v>0</v>
@@ -6800,7 +7311,7 @@
         <v>0</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -6809,16 +7320,19 @@
         <v>0</v>
       </c>
       <c r="K172" t="n">
+        <v>0</v>
+      </c>
+      <c r="L172" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>That translates into 3.5 billion coming to Delaware, also, a record.</t>
+          <t>In 2018, we welcomed a record 9.2 million visitors to our state.</t>
         </is>
       </c>
       <c r="C173" t="n">
@@ -6846,16 +7360,19 @@
         <v>0</v>
       </c>
       <c r="K173" t="n">
+        <v>0</v>
+      </c>
+      <c r="L173" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>You all know one of my favorite parts of being governor is telling folks about the cool stuff there is to do here.</t>
+          <t>That translates into 3.5 billion coming to Delaware, also, a record.</t>
         </is>
       </c>
       <c r="C174" t="n">
@@ -6883,16 +7400,19 @@
         <v>0</v>
       </c>
       <c r="K174" t="n">
+        <v>0</v>
+      </c>
+      <c r="L174" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>This year I took a boat tour on the N Coke with Representative Short.</t>
+          <t>You all know one of my favorite parts of being governor is telling folks about the cool stuff there is to do here.</t>
         </is>
       </c>
       <c r="C175" t="n">
@@ -6902,13 +7422,13 @@
         <v>0</v>
       </c>
       <c r="E175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F175" t="n">
         <v>0</v>
       </c>
       <c r="G175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6920,16 +7440,19 @@
         <v>0</v>
       </c>
       <c r="K175" t="n">
+        <v>0</v>
+      </c>
+      <c r="L175" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>I ate oysters at the Lipstick Oyster Festival with Representative Carson.</t>
+          <t>This year I took a boat tour on the N Coke with Representative Short.</t>
         </is>
       </c>
       <c r="C176" t="n">
@@ -6945,7 +7468,7 @@
         <v>0</v>
       </c>
       <c r="G176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6957,20 +7480,23 @@
         <v>0</v>
       </c>
       <c r="K176" t="n">
+        <v>0</v>
+      </c>
+      <c r="L176" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>I toured the Firefly concert grounds and sampled homemade ice cream at Hopkins Farm Creamery.</t>
+          <t>I ate oysters at the Lipstick Oyster Festival with Representative Carson.</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D177" t="n">
         <v>0</v>
@@ -6979,7 +7505,7 @@
         <v>0</v>
       </c>
       <c r="F177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G177" t="n">
         <v>0</v>
@@ -6994,16 +7520,19 @@
         <v>0</v>
       </c>
       <c r="K177" t="n">
+        <v>0</v>
+      </c>
+      <c r="L177" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>I played Corn Hole at Crook and Hammock Brewery and Lewis and played disc golf at Killings Pond State Park.</t>
+          <t>I toured the Firefly concert grounds and sampled homemade ice cream at Hopkins Farm Creamery.</t>
         </is>
       </c>
       <c r="C178" t="n">
@@ -7031,20 +7560,23 @@
         <v>0</v>
       </c>
       <c r="K178" t="n">
+        <v>0</v>
+      </c>
+      <c r="L178" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>I went to the first Blue Coats game at the 70 Sixers Field House and watched Little League Senior World Series in Roxana.</t>
+          <t>I played Corn Hole at Crook and Hammock Brewery and Lewis and played disc golf at Killings Pond State Park.</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D179" t="n">
         <v>0</v>
@@ -7053,7 +7585,7 @@
         <v>0</v>
       </c>
       <c r="F179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G179" t="n">
         <v>0</v>
@@ -7068,20 +7600,23 @@
         <v>0</v>
       </c>
       <c r="K179" t="n">
+        <v>0</v>
+      </c>
+      <c r="L179" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>So lets hear it for a great year in in Delaware.</t>
+          <t>I went to the first Blue Coats game at the 70 Sixers Field House and watched Little League Senior World Series in Roxana.</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D180" t="n">
         <v>0</v>
@@ -7090,7 +7625,7 @@
         <v>0</v>
       </c>
       <c r="F180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G180" t="n">
         <v>0</v>
@@ -7105,16 +7640,19 @@
         <v>0</v>
       </c>
       <c r="K180" t="n">
+        <v>0</v>
+      </c>
+      <c r="L180" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>I know what youre thinking, Senator.</t>
+          <t>So lets hear it for a great year in in Delaware.</t>
         </is>
       </c>
       <c r="C181" t="n">
@@ -7136,29 +7674,32 @@
         <v>0</v>
       </c>
       <c r="I181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J181" t="n">
         <v>0</v>
       </c>
       <c r="K181" t="n">
+        <v>0</v>
+      </c>
+      <c r="L181" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>When does this guy do any work.</t>
+          <t>I know what youre thinking, Senator.</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E182" t="n">
         <v>0</v>
@@ -7179,26 +7720,29 @@
         <v>0</v>
       </c>
       <c r="K182" t="n">
+        <v>0</v>
+      </c>
+      <c r="L182" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Weve got something really cool happening this spring that everybody here will be, will want to be part of.</t>
+          <t>When does this guy do any work.</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D183" t="n">
         <v>0</v>
       </c>
       <c r="E183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F183" t="n">
         <v>0</v>
@@ -7210,35 +7754,38 @@
         <v>0</v>
       </c>
       <c r="I183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J183" t="n">
         <v>0</v>
       </c>
       <c r="K183" t="n">
+        <v>0</v>
+      </c>
+      <c r="L183" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Warships named after the first date have sailed under a US flag dating back to the Revolutionary War.</t>
+          <t>Weve got something really cool happening this spring that everybody here will be, will want to be part of.</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D184" t="n">
         <v>0</v>
       </c>
       <c r="E184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G184" t="n">
         <v>0</v>
@@ -7253,16 +7800,19 @@
         <v>0</v>
       </c>
       <c r="K184" t="n">
+        <v>0</v>
+      </c>
+      <c r="L184" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>But its been over a hundred years since weve had a Navy ship named Delaware thats gonna change this spring when a USS Delaware, a brand new Virginia class nuclear submarine is commissioned at the port of Wilmington.</t>
+          <t>Warships named after the first date have sailed under a US flag dating back to the Revolutionary War.</t>
         </is>
       </c>
       <c r="C185" t="n">
@@ -7290,16 +7840,19 @@
         <v>0</v>
       </c>
       <c r="K185" t="n">
+        <v>0</v>
+      </c>
+      <c r="L185" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Now thats gonna be cool.</t>
+          <t>But its been over a hundred years since weve had a Navy ship named Delaware thats gonna change this spring when a USS Delaware, a brand new Virginia class nuclear submarine is commissioned at the port of Wilmington.</t>
         </is>
       </c>
       <c r="C186" t="n">
@@ -7327,20 +7880,23 @@
         <v>0</v>
       </c>
       <c r="K186" t="n">
+        <v>0</v>
+      </c>
+      <c r="L186" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>I hope youll join me for it.</t>
+          <t>Now thats gonna be cool.</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D187" t="n">
         <v>0</v>
@@ -7364,20 +7920,23 @@
         <v>0</v>
       </c>
       <c r="K187" t="n">
+        <v>0</v>
+      </c>
+      <c r="L187" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>To help me market our great state Ive got some marketing materials to hand out here to the speaker in Pro 10.</t>
+          <t>I hope youll join me for it.</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D188" t="n">
         <v>0</v>
@@ -7395,22 +7954,25 @@
         <v>0</v>
       </c>
       <c r="I188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J188" t="n">
         <v>0</v>
       </c>
       <c r="K188" t="n">
+        <v>0</v>
+      </c>
+      <c r="L188" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Theres one for the rest of you as you leave waiting outside and these water bottles are reusable so we dont have to pick em up in the trash.</t>
+          <t>To help me market our great state Ive got some marketing materials to hand out here to the speaker in Pro 10.</t>
         </is>
       </c>
       <c r="C189" t="n">
@@ -7438,20 +8000,23 @@
         <v>0</v>
       </c>
       <c r="K189" t="n">
+        <v>0</v>
+      </c>
+      <c r="L189" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>While Ive been out having fun touring through Delaware, Ive also spent quite a bit of time with our state employees.</t>
+          <t>Theres one for the rest of you as you leave waiting outside and these water bottles are reusable so we dont have to pick em up in the trash.</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D190" t="n">
         <v>0</v>
@@ -7475,16 +8040,19 @@
         <v>0</v>
       </c>
       <c r="K190" t="n">
+        <v>0</v>
+      </c>
+      <c r="L190" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>The fact is, over the next five years, more than 40% of pension eligible state employees will be able to retire, and so we need to recruit a new generation of public servants into state government.</t>
+          <t>While Ive been out having fun touring through Delaware, Ive also spent quite a bit of time with our state employees.</t>
         </is>
       </c>
       <c r="C191" t="n">
@@ -7512,57 +8080,63 @@
         <v>0</v>
       </c>
       <c r="K191" t="n">
+        <v>0</v>
+      </c>
+      <c r="L191" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>For two years in a row now we funded raises for correctional officers, teachers and social workers who help Delaware families all across our state.</t>
+          <t>The fact is, over the next five years, more than 40% of pension eligible state employees will be able to retire, and so we need to recruit a new generation of public servants into state government.</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D192" t="n">
         <v>0</v>
       </c>
       <c r="E192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F192" t="n">
         <v>0</v>
       </c>
       <c r="G192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J192" t="n">
         <v>0</v>
       </c>
       <c r="K192" t="n">
+        <v>0</v>
+      </c>
+      <c r="L192" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>We funded renovations to the Carville building in Wilmington that were decades overdue and well be including funding in this budget to advance the construction of family court courthouses in Kent and Suta counties.</t>
+          <t>For two years in a row now we funded raises for correctional officers, teachers and social workers who help Delaware families all across our state.</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D193" t="n">
         <v>0</v>
@@ -7577,25 +8151,28 @@
         <v>0</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J193" t="n">
         <v>0</v>
       </c>
       <c r="K193" t="n">
+        <v>0</v>
+      </c>
+      <c r="L193" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Thank you your honors.</t>
+          <t>We funded renovations to the Carville building in Wilmington that were decades overdue and well be including funding in this budget to advance the construction of family court courthouses in Kent and Suta counties.</t>
         </is>
       </c>
       <c r="C194" t="n">
@@ -7623,16 +8200,19 @@
         <v>0</v>
       </c>
       <c r="K194" t="n">
+        <v>0</v>
+      </c>
+      <c r="L194" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>We passed the nations best parental leave policy for state workers and educators.</t>
+          <t>Thank you your honors.</t>
         </is>
       </c>
       <c r="C195" t="n">
@@ -7651,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -7660,20 +8240,23 @@
         <v>0</v>
       </c>
       <c r="K195" t="n">
+        <v>0</v>
+      </c>
+      <c r="L195" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>More than 200 state employees have been able to spend 12 weeks at home with their newborn babies.</t>
+          <t>We passed the nations best parental leave policy for state workers and educators.</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D196" t="n">
         <v>0</v>
@@ -7691,26 +8274,29 @@
         <v>0</v>
       </c>
       <c r="I196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J196" t="n">
         <v>0</v>
       </c>
       <c r="K196" t="n">
+        <v>0</v>
+      </c>
+      <c r="L196" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Thank you Representative Heeran for leading the way on that.</t>
+          <t>More than 200 state employees have been able to spend 12 weeks at home with their newborn babies.</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D197" t="n">
         <v>0</v>
@@ -7728,26 +8314,29 @@
         <v>0</v>
       </c>
       <c r="I197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J197" t="n">
         <v>0</v>
       </c>
       <c r="K197" t="n">
+        <v>0</v>
+      </c>
+      <c r="L197" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>In addition to helping their fellow citizens, many of our state employees put their lives on the line to protect all of us.</t>
+          <t>Thank you Representative Heeran for leading the way on that.</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D198" t="n">
         <v>0</v>
@@ -7762,29 +8351,32 @@
         <v>0</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J198" t="n">
         <v>0</v>
       </c>
       <c r="K198" t="n">
+        <v>0</v>
+      </c>
+      <c r="L198" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Our national guards, men and women set an incredible example of selflessness and sacrifice.</t>
+          <t>In addition to helping their fellow citizens, many of our state employees put their lives on the line to protect all of us.</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D199" t="n">
         <v>0</v>
@@ -7799,35 +8391,38 @@
         <v>0</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J199" t="n">
         <v>0</v>
       </c>
       <c r="K199" t="n">
+        <v>0</v>
+      </c>
+      <c r="L199" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Since I took office in January, 2017, 1,280 members of the Delaware National Guard have deployed overseas and here at home.</t>
+          <t>Our national guards, men and women set an incredible example of selflessness and sacrifice.</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D200" t="n">
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200" t="n">
         <v>0</v>
@@ -7836,25 +8431,28 @@
         <v>0</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J200" t="n">
         <v>0</v>
       </c>
       <c r="K200" t="n">
+        <v>0</v>
+      </c>
+      <c r="L200" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>With us today as Captain Joel Stein Brunner.</t>
+          <t>Since I took office in January, 2017, 1,280 members of the Delaware National Guard have deployed overseas and here at home.</t>
         </is>
       </c>
       <c r="C201" t="n">
@@ -7882,16 +8480,19 @@
         <v>0</v>
       </c>
       <c r="K201" t="n">
+        <v>0</v>
+      </c>
+      <c r="L201" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>During his 23 years of service in the Air National Guard, captain Stein Brunner has deployed six times in support of the war on terror.</t>
+          <t>With us today as Captain Joel Stein Brunner.</t>
         </is>
       </c>
       <c r="C202" t="n">
@@ -7919,20 +8520,23 @@
         <v>0</v>
       </c>
       <c r="K202" t="n">
+        <v>0</v>
+      </c>
+      <c r="L202" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Hes also deployed to help after Hurricane Katrina and disaster relief in Puerto Rico.</t>
+          <t>During his 23 years of service in the Air National Guard, captain Stein Brunner has deployed six times in support of the war on terror.</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D203" t="n">
         <v>0</v>
@@ -7941,7 +8545,7 @@
         <v>0</v>
       </c>
       <c r="F203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G203" t="n">
         <v>0</v>
@@ -7950,26 +8554,29 @@
         <v>0</v>
       </c>
       <c r="I203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J203" t="n">
         <v>0</v>
       </c>
       <c r="K203" t="n">
+        <v>0</v>
+      </c>
+      <c r="L203" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Specialist to Saint is also here with us today.</t>
+          <t>Hes also deployed to help after Hurricane Katrina and disaster relief in Puerto Rico.</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D204" t="n">
         <v>0</v>
@@ -7987,22 +8594,25 @@
         <v>0</v>
       </c>
       <c r="I204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J204" t="n">
         <v>0</v>
       </c>
       <c r="K204" t="n">
+        <v>0</v>
+      </c>
+      <c r="L204" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>She immigrated from Haiti to Delaware and is now enrolled in college.</t>
+          <t>Specialist to Saint is also here with us today.</t>
         </is>
       </c>
       <c r="C205" t="n">
@@ -8012,7 +8622,7 @@
         <v>0</v>
       </c>
       <c r="E205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F205" t="n">
         <v>0</v>
@@ -8030,16 +8640,19 @@
         <v>0</v>
       </c>
       <c r="K205" t="n">
+        <v>0</v>
+      </c>
+      <c r="L205" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Join me in thanking Captain Stein Brunner and specialist to Saint for their service to our country and our state.</t>
+          <t>She immigrated from Haiti to Delaware and is now enrolled in college.</t>
         </is>
       </c>
       <c r="C206" t="n">
@@ -8058,7 +8671,7 @@
         <v>0</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -8067,20 +8680,23 @@
         <v>0</v>
       </c>
       <c r="K206" t="n">
+        <v>0</v>
+      </c>
+      <c r="L206" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>General Barry, to you and your command staff, thank you for your tremendous leadership of these dedicated men and women of the Delaware Army and Air National Guards.</t>
+          <t>Join me in thanking Captain Stein Brunner and specialist to Saint for their service to our country and our state.</t>
         </is>
       </c>
       <c r="C207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D207" t="n">
         <v>0</v>
@@ -8095,29 +8711,32 @@
         <v>0</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J207" t="n">
         <v>0</v>
       </c>
       <c r="K207" t="n">
+        <v>0</v>
+      </c>
+      <c r="L207" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Thank you very much and God bless.</t>
+          <t>General Barry, to you and your command staff, thank you for your tremendous leadership of these dedicated men and women of the Delaware Army and Air National Guards.</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D208" t="n">
         <v>0</v>
@@ -8135,26 +8754,29 @@
         <v>0</v>
       </c>
       <c r="I208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J208" t="n">
         <v>0</v>
       </c>
       <c r="K208" t="n">
+        <v>0</v>
+      </c>
+      <c r="L208" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>The promise we made three years ago to our children is probably the most important of all.</t>
+          <t>Thank you very much and God bless.</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D209" t="n">
         <v>0</v>
@@ -8169,29 +8791,32 @@
         <v>0</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J209" t="n">
         <v>0</v>
       </c>
       <c r="K209" t="n">
+        <v>0</v>
+      </c>
+      <c r="L209" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>We promise that at the end of our term, more children will be graduating ready for what comes next and with a sense of promise about the future.</t>
+          <t>The promise we made three years ago to our children is probably the most important of all.</t>
         </is>
       </c>
       <c r="C210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D210" t="n">
         <v>0</v>
@@ -8206,29 +8831,32 @@
         <v>0</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J210" t="n">
         <v>0</v>
       </c>
       <c r="K210" t="n">
+        <v>0</v>
+      </c>
+      <c r="L210" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Today I can report that graduation rates for low income students and English learners are the highest theyve been in 10 years.</t>
+          <t>We promise that at the end of our term, more children will be graduating ready for what comes next and with a sense of promise about the future.</t>
         </is>
       </c>
       <c r="C211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D211" t="n">
         <v>0</v>
@@ -8240,32 +8868,35 @@
         <v>0</v>
       </c>
       <c r="G211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
       </c>
       <c r="I211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J211" t="n">
         <v>0</v>
       </c>
       <c r="K211" t="n">
+        <v>0</v>
+      </c>
+      <c r="L211" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Today for the first time in our states history, were targeting resources towards these students who need our help the most.</t>
+          <t>Today I can report that graduation rates for low income students and English learners are the highest theyve been in 10 years.</t>
         </is>
       </c>
       <c r="C212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D212" t="n">
         <v>0</v>
@@ -8280,7 +8911,7 @@
         <v>0</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -8289,20 +8920,23 @@
         <v>0</v>
       </c>
       <c r="K212" t="n">
+        <v>0</v>
+      </c>
+      <c r="L212" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>As you know, we call it opportunity funding.</t>
+          <t>Today for the first time in our states history, were targeting resources towards these students who need our help the most.</t>
         </is>
       </c>
       <c r="C213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D213" t="n">
         <v>0</v>
@@ -8326,16 +8960,19 @@
         <v>0</v>
       </c>
       <c r="K213" t="n">
+        <v>0</v>
+      </c>
+      <c r="L213" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Districts are already putting the money to good use.</t>
+          <t>As you know, we call it opportunity funding.</t>
         </is>
       </c>
       <c r="C214" t="n">
@@ -8363,20 +9000,23 @@
         <v>0</v>
       </c>
       <c r="K214" t="n">
+        <v>0</v>
+      </c>
+      <c r="L214" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Aquin is expanding pre-K enrollment.</t>
+          <t>Districts are already putting the money to good use.</t>
         </is>
       </c>
       <c r="C215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D215" t="n">
         <v>0</v>
@@ -8388,28 +9028,31 @@
         <v>0</v>
       </c>
       <c r="G215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
       </c>
       <c r="I215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J215" t="n">
         <v>0</v>
       </c>
       <c r="K215" t="n">
+        <v>0</v>
+      </c>
+      <c r="L215" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>In red Clay Darrel Green and his team are reducing class sizes and providing additional mental health supports.</t>
+          <t>Aquin is expanding pre-K enrollment.</t>
         </is>
       </c>
       <c r="C216" t="n">
@@ -8437,16 +9080,19 @@
         <v>0</v>
       </c>
       <c r="K216" t="n">
+        <v>0</v>
+      </c>
+      <c r="L216" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Laurel educators are placing a specific focus on behavioral health in the classroom.</t>
+          <t>In red Clay Darrel Green and his team are reducing class sizes and providing additional mental health supports.</t>
         </is>
       </c>
       <c r="C217" t="n">
@@ -8462,7 +9108,7 @@
         <v>0</v>
       </c>
       <c r="G217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8474,20 +9120,23 @@
         <v>0</v>
       </c>
       <c r="K217" t="n">
+        <v>0</v>
+      </c>
+      <c r="L217" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Laurel is represented today by Jessica Noack, their behavioral health coordinator.</t>
+          <t>Laurel educators are placing a specific focus on behavioral health in the classroom.</t>
         </is>
       </c>
       <c r="C218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D218" t="n">
         <v>0</v>
@@ -8502,25 +9151,28 @@
         <v>0</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J218" t="n">
         <v>0</v>
       </c>
       <c r="K218" t="n">
+        <v>0</v>
+      </c>
+      <c r="L218" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Jessica was hired through our opportunity funding.</t>
+          <t>Laurel is represented today by Jessica Noack, their behavioral health coordinator.</t>
         </is>
       </c>
       <c r="C219" t="n">
@@ -8548,16 +9200,19 @@
         <v>0</v>
       </c>
       <c r="K219" t="n">
+        <v>0</v>
+      </c>
+      <c r="L219" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Public schools across the state are using this funding to hire more than 200 new educators and professionals focusing on these students.</t>
+          <t>Jessica was hired through our opportunity funding.</t>
         </is>
       </c>
       <c r="C220" t="n">
@@ -8567,7 +9222,7 @@
         <v>0</v>
       </c>
       <c r="E220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F220" t="n">
         <v>0</v>
@@ -8585,16 +9240,19 @@
         <v>0</v>
       </c>
       <c r="K220" t="n">
+        <v>0</v>
+      </c>
+      <c r="L220" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Lets give Jessica and all of our educators a big round of applause.</t>
+          <t>Public schools across the state are using this funding to hire more than 200 new educators and professionals focusing on these students.</t>
         </is>
       </c>
       <c r="C221" t="n">
@@ -8622,20 +9280,23 @@
         <v>0</v>
       </c>
       <c r="K221" t="n">
+        <v>0</v>
+      </c>
+      <c r="L221" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Jessicas mother is a state employee.</t>
+          <t>Lets give Jessica and all of our educators a big round of applause.</t>
         </is>
       </c>
       <c r="C222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D222" t="n">
         <v>0</v>
@@ -8653,26 +9314,29 @@
         <v>0</v>
       </c>
       <c r="I222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J222" t="n">
         <v>0</v>
       </c>
       <c r="K222" t="n">
+        <v>0</v>
+      </c>
+      <c r="L222" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>My budget will continue this investment not only because its the right thing to do, but because the future of our state depends on the success of every one of our children.</t>
+          <t>Jessicas mother is a state employee.</t>
         </is>
       </c>
       <c r="C223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D223" t="n">
         <v>0</v>
@@ -8681,13 +9345,13 @@
         <v>0</v>
       </c>
       <c r="F223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G223" t="n">
         <v>0</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -8696,20 +9360,23 @@
         <v>0</v>
       </c>
       <c r="K223" t="n">
+        <v>0</v>
+      </c>
+      <c r="L223" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>We know that an early start is key to the success and thats why over the next three years well increase state funded ECAP pre-K seats by 50% statewide.</t>
+          <t>My budget will continue this investment not only because its the right thing to do, but because the future of our state depends on the success of every one of our children.</t>
         </is>
       </c>
       <c r="C224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D224" t="n">
         <v>0</v>
@@ -8721,28 +9388,31 @@
         <v>0</v>
       </c>
       <c r="G224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
       </c>
       <c r="I224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J224" t="n">
         <v>0</v>
       </c>
       <c r="K224" t="n">
+        <v>0</v>
+      </c>
+      <c r="L224" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>While students across our state need our attention, students in the city of Wilmington need our help the most.</t>
+          <t>We know that an early start is key to the success and thats why over the next three years well increase state funded ECAP pre-K seats by 50% statewide.</t>
         </is>
       </c>
       <c r="C225" t="n">
@@ -8755,13 +9425,13 @@
         <v>0</v>
       </c>
       <c r="F225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G225" t="n">
         <v>0</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -8770,20 +9440,23 @@
         <v>0</v>
       </c>
       <c r="K225" t="n">
+        <v>0</v>
+      </c>
+      <c r="L225" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>And thats why just yesterday we announced our plan to invest $50 million to build a new school on the east side of Wilmington and to renovate Byard on the west side all across Delaware from Dover to Middletown to Rohoboth.</t>
+          <t>While students across our state need our attention, students in the city of Wilmington need our help the most.</t>
         </is>
       </c>
       <c r="C226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D226" t="n">
         <v>0</v>
@@ -8795,28 +9468,31 @@
         <v>0</v>
       </c>
       <c r="G226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
       </c>
       <c r="I226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J226" t="n">
         <v>0</v>
       </c>
       <c r="K226" t="n">
+        <v>0</v>
+      </c>
+      <c r="L226" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Weve built or renovated nearly 30 beautiful schools in the last three years.</t>
+          <t>And thats why just yesterday we announced our plan to invest $50 million to build a new school on the east side of Wilmington and to renovate Byard on the west side all across Delaware from Dover to Middletown to Rohoboth.</t>
         </is>
       </c>
       <c r="C227" t="n">
@@ -8844,16 +9520,19 @@
         <v>0</v>
       </c>
       <c r="K227" t="n">
+        <v>0</v>
+      </c>
+      <c r="L227" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Our children in Wilmington deserve no less.</t>
+          <t>Weve built or renovated nearly 30 beautiful schools in the last three years.</t>
         </is>
       </c>
       <c r="C228" t="n">
@@ -8872,7 +9551,7 @@
         <v>0</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -8881,20 +9560,23 @@
         <v>0</v>
       </c>
       <c r="K228" t="n">
+        <v>0</v>
+      </c>
+      <c r="L228" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>I like that.</t>
+          <t>Our children in Wilmington deserve no less.</t>
         </is>
       </c>
       <c r="C229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D229" t="n">
         <v>0</v>
@@ -8912,22 +9594,25 @@
         <v>0</v>
       </c>
       <c r="I229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J229" t="n">
         <v>0</v>
       </c>
       <c r="K229" t="n">
+        <v>0</v>
+      </c>
+      <c r="L229" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Three years ago we promised Delawareans that wed make investments that move our state forward while getting our states finances in order and after digging out of a $400 million dollar deficit, weve had two years now of stronger revenues and weve been disciplined about how weve spent it.</t>
+          <t>I like that.</t>
         </is>
       </c>
       <c r="C230" t="n">
@@ -8937,10 +9622,10 @@
         <v>0</v>
       </c>
       <c r="E230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G230" t="n">
         <v>0</v>
@@ -8955,20 +9640,23 @@
         <v>0</v>
       </c>
       <c r="K230" t="n">
+        <v>0</v>
+      </c>
+      <c r="L230" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Today we have a 200 million surplus.</t>
+          <t>Three years ago we promised Delawareans that wed make investments that move our state forward while getting our states finances in order and after digging out of a $400 million dollar deficit, weve had two years now of stronger revenues and weve been disciplined about how weve spent it.</t>
         </is>
       </c>
       <c r="C231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D231" t="n">
         <v>0</v>
@@ -8986,22 +9674,25 @@
         <v>0</v>
       </c>
       <c r="I231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J231" t="n">
         <v>0</v>
       </c>
       <c r="K231" t="n">
+        <v>0</v>
+      </c>
+      <c r="L231" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>And importantly we have 126 million in additional reserve that we can use when we need it.</t>
+          <t>Today we have a 200 million surplus.</t>
         </is>
       </c>
       <c r="C232" t="n">
@@ -9029,20 +9720,23 @@
         <v>0</v>
       </c>
       <c r="K232" t="n">
+        <v>0</v>
+      </c>
+      <c r="L232" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>The budget Ill proposed later this month will limit spending to sustainable levels and dedicate one time revenues for one time infrastructure projects.</t>
+          <t>And importantly we have 126 million in additional reserve that we can use when we need it.</t>
         </is>
       </c>
       <c r="C233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D233" t="n">
         <v>0</v>
@@ -9054,32 +9748,35 @@
         <v>0</v>
       </c>
       <c r="G233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
       </c>
       <c r="I233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J233" t="n">
         <v>0</v>
       </c>
       <c r="K233" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L233" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>I will also propose the largest infrastructure plan in our states history for the second year in a row.</t>
+          <t>The budget Ill proposed later this month will limit spending to sustainable levels and dedicate one time revenues for one time infrastructure projects.</t>
         </is>
       </c>
       <c r="C234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D234" t="n">
         <v>0</v>
@@ -9103,16 +9800,19 @@
         <v>0</v>
       </c>
       <c r="K234" t="n">
+        <v>0</v>
+      </c>
+      <c r="L234" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Were building state-of-the-art schools across our state.</t>
+          <t>I will also propose the largest infrastructure plan in our states history for the second year in a row.</t>
         </is>
       </c>
       <c r="C235" t="n">
@@ -9128,7 +9828,7 @@
         <v>0</v>
       </c>
       <c r="G235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -9140,20 +9840,23 @@
         <v>0</v>
       </c>
       <c r="K235" t="n">
+        <v>0</v>
+      </c>
+      <c r="L235" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Were rebuilding our water infrastructure to make sure every delawarean has access to clean water.</t>
+          <t>Were building state-of-the-art schools across our state.</t>
         </is>
       </c>
       <c r="C236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D236" t="n">
         <v>0</v>
@@ -9168,29 +9871,32 @@
         <v>0</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J236" t="n">
         <v>0</v>
       </c>
       <c r="K236" t="n">
+        <v>0</v>
+      </c>
+      <c r="L236" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Were preserving open space and investing in our downtowns and were supporting small businesses and in working families in our state.</t>
+          <t>Were rebuilding our water infrastructure to make sure every delawarean has access to clean water.</t>
         </is>
       </c>
       <c r="C237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D237" t="n">
         <v>0</v>
@@ -9208,29 +9914,32 @@
         <v>0</v>
       </c>
       <c r="I237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J237" t="n">
         <v>0</v>
       </c>
       <c r="K237" t="n">
+        <v>0</v>
+      </c>
+      <c r="L237" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Folks come up to me all the time and say, so governor, how things going.</t>
+          <t>Were preserving open space and investing in our downtowns and were supporting small businesses and in working families in our state.</t>
         </is>
       </c>
       <c r="C238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E238" t="n">
         <v>0</v>
@@ -9242,29 +9951,32 @@
         <v>0</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J238" t="n">
         <v>0</v>
       </c>
       <c r="K238" t="n">
+        <v>0</v>
+      </c>
+      <c r="L238" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>And Ive taken the barring a phrase from our senior Senator Tom car compared to what.</t>
+          <t>Folks come up to me all the time and say, so governor, how things going.</t>
         </is>
       </c>
       <c r="C239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D239" t="n">
         <v>0</v>
@@ -9288,20 +10000,23 @@
         <v>0</v>
       </c>
       <c r="K239" t="n">
+        <v>0</v>
+      </c>
+      <c r="L239" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>As I start my fourth year as your governor and compare things now to how they were when I took office.</t>
+          <t>And Ive taken the barring a phrase from our senior Senator Tom car compared to what.</t>
         </is>
       </c>
       <c r="C240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D240" t="n">
         <v>0</v>
@@ -9310,7 +10025,7 @@
         <v>0</v>
       </c>
       <c r="F240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G240" t="n">
         <v>0</v>
@@ -9325,16 +10040,19 @@
         <v>0</v>
       </c>
       <c r="K240" t="n">
+        <v>0</v>
+      </c>
+      <c r="L240" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Things are really looking up.</t>
+          <t>As I start my fourth year as your governor and compare things now to how they were when I took office.</t>
         </is>
       </c>
       <c r="C241" t="n">
@@ -9362,16 +10080,19 @@
         <v>0</v>
       </c>
       <c r="K241" t="n">
+        <v>0</v>
+      </c>
+      <c r="L241" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>All of us in this room are keepers of the public trust.</t>
+          <t>Things are really looking up.</t>
         </is>
       </c>
       <c r="C242" t="n">
@@ -9390,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -9399,20 +10120,23 @@
         <v>0</v>
       </c>
       <c r="K242" t="n">
+        <v>0</v>
+      </c>
+      <c r="L242" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Speaker 3    00:40:07    When we make promises, we have to keep em, and thats what weve done.</t>
+          <t>All of us in this room are keepers of the public trust.</t>
         </is>
       </c>
       <c r="C243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D243" t="n">
         <v>0</v>
@@ -9424,32 +10148,35 @@
         <v>0</v>
       </c>
       <c r="G243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J243" t="n">
         <v>0</v>
       </c>
       <c r="K243" t="n">
+        <v>0</v>
+      </c>
+      <c r="L243" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>When people have confidence in their government, it helps give them hope for the future.</t>
+          <t>Speaker 3    00:40:07    When we make promises, we have to keep em, and thats what weve done.</t>
         </is>
       </c>
       <c r="C244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D244" t="n">
         <v>0</v>
@@ -9464,29 +10191,32 @@
         <v>0</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J244" t="n">
         <v>0</v>
       </c>
       <c r="K244" t="n">
+        <v>0</v>
+      </c>
+      <c r="L244" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Inspiring that hope is our job too.</t>
+          <t>When people have confidence in their government, it helps give them hope for the future.</t>
         </is>
       </c>
       <c r="C245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D245" t="n">
         <v>0</v>
@@ -9501,29 +10231,32 @@
         <v>0</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J245" t="n">
         <v>0</v>
       </c>
       <c r="K245" t="n">
+        <v>0</v>
+      </c>
+      <c r="L245" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>There are some things we can do in government that dont require a new program or new spending or even a new idea.</t>
+          <t>Inspiring that hope is our job too.</t>
         </is>
       </c>
       <c r="C246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D246" t="n">
         <v>0</v>
@@ -9532,35 +10265,38 @@
         <v>0</v>
       </c>
       <c r="F246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
       </c>
       <c r="I246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J246" t="n">
         <v>0</v>
       </c>
       <c r="K246" t="n">
+        <v>0</v>
+      </c>
+      <c r="L246" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>And yet they can inspire the same hope and faith in our government.</t>
+          <t>There are some things we can do in government that dont require a new program or new spending or even a new idea.</t>
         </is>
       </c>
       <c r="C247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D247" t="n">
         <v>0</v>
@@ -9572,10 +10308,10 @@
         <v>0</v>
       </c>
       <c r="G247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -9584,26 +10320,29 @@
         <v>0</v>
       </c>
       <c r="K247" t="n">
+        <v>0</v>
+      </c>
+      <c r="L247" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>We had just such an opportunity a few months ago when right across the hall the Senate confirmed Delawares first African American Supreme Court justice who was here with us today.</t>
+          <t>And yet they can inspire the same hope and faith in our government.</t>
         </is>
       </c>
       <c r="C248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D248" t="n">
         <v>0</v>
       </c>
       <c r="E248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F248" t="n">
         <v>0</v>
@@ -9615,22 +10354,25 @@
         <v>0</v>
       </c>
       <c r="I248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J248" t="n">
         <v>0</v>
       </c>
       <c r="K248" t="n">
+        <v>0</v>
+      </c>
+      <c r="L248" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Justice Montgomery Reeve swearing in before a crowd of hundreds at at Historic Howard High School is a moment I wont forget.</t>
+          <t>We had just such an opportunity a few months ago when right across the hall the Senate confirmed Delawares first African American Supreme Court justice who was here with us today.</t>
         </is>
       </c>
       <c r="C249" t="n">
@@ -9658,20 +10400,23 @@
         <v>0</v>
       </c>
       <c r="K249" t="n">
+        <v>0</v>
+      </c>
+      <c r="L249" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>And so lets continue to work together over the next year to build on the promises we made to give people faith in their government and to give them hope for the future.</t>
+          <t>Justice Montgomery Reeve swearing in before a crowd of hundreds at at Historic Howard High School is a moment I wont forget.</t>
         </is>
       </c>
       <c r="C250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D250" t="n">
         <v>0</v>
@@ -9680,35 +10425,38 @@
         <v>0</v>
       </c>
       <c r="F250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
       </c>
       <c r="I250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K250" t="n">
+        <v>0</v>
+      </c>
+      <c r="L250" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Thank you all.</t>
+          <t>And so lets continue to work together over the next year to build on the promises we made to give people faith in their government and to give them hope for the future.</t>
         </is>
       </c>
       <c r="C251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D251" t="n">
         <v>0</v>
@@ -9726,22 +10474,25 @@
         <v>0</v>
       </c>
       <c r="I251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J251" t="n">
         <v>0</v>
       </c>
       <c r="K251" t="n">
+        <v>0</v>
+      </c>
+      <c r="L251" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>God bless you.</t>
+          <t>Thank you all.</t>
         </is>
       </c>
       <c r="C252" t="n">
@@ -9757,7 +10508,7 @@
         <v>0</v>
       </c>
       <c r="G252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9769,20 +10520,23 @@
         <v>0</v>
       </c>
       <c r="K252" t="n">
+        <v>0</v>
+      </c>
+      <c r="L252" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>God bless the state of Delaware and God bless our great United States of America.</t>
+          <t>God bless you.</t>
         </is>
       </c>
       <c r="C253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D253" t="n">
         <v>0</v>
@@ -9800,213 +10554,493 @@
         <v>0</v>
       </c>
       <c r="I253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J253" t="n">
         <v>0</v>
       </c>
       <c r="K253" t="n">
+        <v>0</v>
+      </c>
+      <c r="L253" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
-        <v>253</v>
-      </c>
-      <c r="B254" t="inlineStr"/>
-      <c r="C254" t="inlineStr"/>
-      <c r="D254" t="inlineStr"/>
-      <c r="E254" t="inlineStr"/>
-      <c r="F254" t="inlineStr"/>
-      <c r="G254" t="inlineStr"/>
-      <c r="H254" t="inlineStr"/>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+        <v>252</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>God bless the state of Delaware and God bless our great United States of America.</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>1</v>
+      </c>
+      <c r="D254" t="n">
+        <v>0</v>
+      </c>
+      <c r="E254" t="n">
+        <v>0</v>
+      </c>
+      <c r="F254" t="n">
+        <v>0</v>
+      </c>
+      <c r="G254" t="n">
+        <v>0</v>
+      </c>
+      <c r="H254" t="n">
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>1</v>
+      </c>
+      <c r="J254" t="n">
+        <v>0</v>
+      </c>
+      <c r="K254" t="n">
+        <v>0</v>
+      </c>
+      <c r="L254" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B255" t="inlineStr"/>
-      <c r="C255" t="inlineStr"/>
-      <c r="D255" t="inlineStr"/>
-      <c r="E255" t="inlineStr"/>
-      <c r="F255" t="inlineStr"/>
-      <c r="G255" t="inlineStr"/>
-      <c r="H255" t="inlineStr"/>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="C255" t="n">
+        <v>0</v>
+      </c>
+      <c r="D255" t="n">
+        <v>0</v>
+      </c>
+      <c r="E255" t="n">
+        <v>0</v>
+      </c>
+      <c r="F255" t="n">
+        <v>0</v>
+      </c>
+      <c r="G255" t="n">
+        <v>0</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="n">
+        <v>0</v>
+      </c>
+      <c r="J255" t="n">
+        <v>0</v>
+      </c>
+      <c r="K255" t="n">
+        <v>0</v>
+      </c>
+      <c r="L255" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B256" t="inlineStr"/>
-      <c r="C256" t="inlineStr"/>
-      <c r="D256" t="inlineStr"/>
-      <c r="E256" t="inlineStr"/>
-      <c r="F256" t="inlineStr"/>
-      <c r="G256" t="inlineStr"/>
-      <c r="H256" t="inlineStr"/>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="C256" t="n">
+        <v>0</v>
+      </c>
+      <c r="D256" t="n">
+        <v>0</v>
+      </c>
+      <c r="E256" t="n">
+        <v>0</v>
+      </c>
+      <c r="F256" t="n">
+        <v>0</v>
+      </c>
+      <c r="G256" t="n">
+        <v>0</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="n">
+        <v>0</v>
+      </c>
+      <c r="J256" t="n">
+        <v>0</v>
+      </c>
+      <c r="K256" t="n">
+        <v>0</v>
+      </c>
+      <c r="L256" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B257" t="inlineStr"/>
-      <c r="C257" t="inlineStr"/>
-      <c r="D257" t="inlineStr"/>
-      <c r="E257" t="inlineStr"/>
-      <c r="F257" t="inlineStr"/>
-      <c r="G257" t="inlineStr"/>
-      <c r="H257" t="inlineStr"/>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="C257" t="n">
+        <v>0</v>
+      </c>
+      <c r="D257" t="n">
+        <v>0</v>
+      </c>
+      <c r="E257" t="n">
+        <v>0</v>
+      </c>
+      <c r="F257" t="n">
+        <v>0</v>
+      </c>
+      <c r="G257" t="n">
+        <v>0</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="n">
+        <v>0</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0</v>
+      </c>
+      <c r="K257" t="n">
+        <v>0</v>
+      </c>
+      <c r="L257" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B258" t="inlineStr"/>
-      <c r="C258" t="inlineStr"/>
-      <c r="D258" t="inlineStr"/>
-      <c r="E258" t="inlineStr"/>
-      <c r="F258" t="inlineStr"/>
-      <c r="G258" t="inlineStr"/>
-      <c r="H258" t="inlineStr"/>
-      <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="C258" t="n">
+        <v>0</v>
+      </c>
+      <c r="D258" t="n">
+        <v>0</v>
+      </c>
+      <c r="E258" t="n">
+        <v>0</v>
+      </c>
+      <c r="F258" t="n">
+        <v>0</v>
+      </c>
+      <c r="G258" t="n">
+        <v>0</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="n">
+        <v>0</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0</v>
+      </c>
+      <c r="K258" t="n">
+        <v>0</v>
+      </c>
+      <c r="L258" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B259" t="inlineStr"/>
-      <c r="C259" t="inlineStr"/>
-      <c r="D259" t="inlineStr"/>
-      <c r="E259" t="inlineStr"/>
-      <c r="F259" t="inlineStr"/>
-      <c r="G259" t="inlineStr"/>
-      <c r="H259" t="inlineStr"/>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="C259" t="n">
+        <v>0</v>
+      </c>
+      <c r="D259" t="n">
+        <v>0</v>
+      </c>
+      <c r="E259" t="n">
+        <v>0</v>
+      </c>
+      <c r="F259" t="n">
+        <v>0</v>
+      </c>
+      <c r="G259" t="n">
+        <v>0</v>
+      </c>
+      <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="n">
+        <v>0</v>
+      </c>
+      <c r="J259" t="n">
+        <v>0</v>
+      </c>
+      <c r="K259" t="n">
+        <v>0</v>
+      </c>
+      <c r="L259" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B260" t="inlineStr"/>
-      <c r="C260" t="inlineStr"/>
-      <c r="D260" t="inlineStr"/>
-      <c r="E260" t="inlineStr"/>
-      <c r="F260" t="inlineStr"/>
-      <c r="G260" t="inlineStr"/>
-      <c r="H260" t="inlineStr"/>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="C260" t="n">
+        <v>0</v>
+      </c>
+      <c r="D260" t="n">
+        <v>0</v>
+      </c>
+      <c r="E260" t="n">
+        <v>0</v>
+      </c>
+      <c r="F260" t="n">
+        <v>0</v>
+      </c>
+      <c r="G260" t="n">
+        <v>0</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="n">
+        <v>0</v>
+      </c>
+      <c r="J260" t="n">
+        <v>0</v>
+      </c>
+      <c r="K260" t="n">
+        <v>0</v>
+      </c>
+      <c r="L260" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B261" t="inlineStr"/>
-      <c r="C261" t="inlineStr"/>
-      <c r="D261" t="inlineStr"/>
-      <c r="E261" t="inlineStr"/>
-      <c r="F261" t="inlineStr"/>
-      <c r="G261" t="inlineStr"/>
-      <c r="H261" t="inlineStr"/>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="C261" t="n">
+        <v>0</v>
+      </c>
+      <c r="D261" t="n">
+        <v>0</v>
+      </c>
+      <c r="E261" t="n">
+        <v>0</v>
+      </c>
+      <c r="F261" t="n">
+        <v>0</v>
+      </c>
+      <c r="G261" t="n">
+        <v>0</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="n">
+        <v>0</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0</v>
+      </c>
+      <c r="K261" t="n">
+        <v>0</v>
+      </c>
+      <c r="L261" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B262" t="inlineStr"/>
-      <c r="C262" t="inlineStr"/>
-      <c r="D262" t="inlineStr"/>
-      <c r="E262" t="inlineStr"/>
-      <c r="F262" t="inlineStr"/>
-      <c r="G262" t="inlineStr"/>
-      <c r="H262" t="inlineStr"/>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="C262" t="n">
+        <v>0</v>
+      </c>
+      <c r="D262" t="n">
+        <v>0</v>
+      </c>
+      <c r="E262" t="n">
+        <v>0</v>
+      </c>
+      <c r="F262" t="n">
+        <v>0</v>
+      </c>
+      <c r="G262" t="n">
+        <v>0</v>
+      </c>
+      <c r="H262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" t="n">
+        <v>0</v>
+      </c>
+      <c r="J262" t="n">
+        <v>0</v>
+      </c>
+      <c r="K262" t="n">
+        <v>0</v>
+      </c>
+      <c r="L262" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B263" t="inlineStr"/>
-      <c r="C263" t="inlineStr"/>
-      <c r="D263" t="inlineStr"/>
-      <c r="E263" t="inlineStr"/>
-      <c r="F263" t="inlineStr"/>
-      <c r="G263" t="inlineStr"/>
-      <c r="H263" t="inlineStr"/>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="C263" t="n">
+        <v>0</v>
+      </c>
+      <c r="D263" t="n">
+        <v>0</v>
+      </c>
+      <c r="E263" t="n">
+        <v>0</v>
+      </c>
+      <c r="F263" t="n">
+        <v>0</v>
+      </c>
+      <c r="G263" t="n">
+        <v>0</v>
+      </c>
+      <c r="H263" t="n">
+        <v>0</v>
+      </c>
+      <c r="I263" t="n">
+        <v>0</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0</v>
+      </c>
+      <c r="K263" t="n">
+        <v>0</v>
+      </c>
+      <c r="L263" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B264" t="inlineStr"/>
-      <c r="C264" t="inlineStr"/>
-      <c r="D264" t="inlineStr"/>
-      <c r="E264" t="inlineStr"/>
-      <c r="F264" t="inlineStr"/>
-      <c r="G264" t="inlineStr"/>
-      <c r="H264" t="inlineStr"/>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="C264" t="n">
+        <v>0</v>
+      </c>
+      <c r="D264" t="n">
+        <v>0</v>
+      </c>
+      <c r="E264" t="n">
+        <v>0</v>
+      </c>
+      <c r="F264" t="n">
+        <v>0</v>
+      </c>
+      <c r="G264" t="n">
+        <v>0</v>
+      </c>
+      <c r="H264" t="n">
+        <v>0</v>
+      </c>
+      <c r="I264" t="n">
+        <v>0</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0</v>
+      </c>
+      <c r="K264" t="n">
+        <v>0</v>
+      </c>
+      <c r="L264" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B265" t="inlineStr"/>
-      <c r="C265" t="inlineStr"/>
-      <c r="D265" t="inlineStr"/>
-      <c r="E265" t="inlineStr"/>
-      <c r="F265" t="inlineStr"/>
-      <c r="G265" t="inlineStr"/>
-      <c r="H265" t="inlineStr"/>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="C265" t="n">
+        <v>0</v>
+      </c>
+      <c r="D265" t="n">
+        <v>0</v>
+      </c>
+      <c r="E265" t="n">
+        <v>0</v>
+      </c>
+      <c r="F265" t="n">
+        <v>0</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0</v>
+      </c>
+      <c r="H265" t="n">
+        <v>0</v>
+      </c>
+      <c r="I265" t="n">
+        <v>0</v>
+      </c>
+      <c r="J265" t="n">
+        <v>0</v>
+      </c>
+      <c r="K265" t="n">
+        <v>0</v>
+      </c>
+      <c r="L265" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B266" t="inlineStr"/>
-      <c r="C266" t="inlineStr"/>
-      <c r="D266" t="inlineStr"/>
-      <c r="E266" t="inlineStr"/>
-      <c r="F266" t="inlineStr"/>
-      <c r="G266" t="inlineStr"/>
-      <c r="H266" t="inlineStr"/>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="C266" t="n">
+        <v>0</v>
+      </c>
+      <c r="D266" t="n">
+        <v>0</v>
+      </c>
+      <c r="E266" t="n">
+        <v>0</v>
+      </c>
+      <c r="F266" t="n">
+        <v>0</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0</v>
+      </c>
+      <c r="H266" t="n">
+        <v>0</v>
+      </c>
+      <c r="I266" t="n">
+        <v>0</v>
+      </c>
+      <c r="J266" t="n">
+        <v>0</v>
+      </c>
+      <c r="K266" t="n">
+        <v>0</v>
+      </c>
+      <c r="L266" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B267" t="inlineStr"/>
       <c r="C267" t="n">
@@ -10036,10 +11070,13 @@
       <c r="K267" t="n">
         <v>0</v>
       </c>
+      <c r="L267" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B268" t="inlineStr"/>
       <c r="C268" t="n">
@@ -10069,10 +11106,13 @@
       <c r="K268" t="n">
         <v>0</v>
       </c>
+      <c r="L268" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B269" t="inlineStr"/>
       <c r="C269" t="n">
@@ -10102,10 +11142,13 @@
       <c r="K269" t="n">
         <v>0</v>
       </c>
+      <c r="L269" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B270" t="inlineStr"/>
       <c r="C270" t="n">
@@ -10135,10 +11178,13 @@
       <c r="K270" t="n">
         <v>0</v>
       </c>
+      <c r="L270" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B271" t="inlineStr"/>
       <c r="C271" t="n">
@@ -10168,10 +11214,13 @@
       <c r="K271" t="n">
         <v>0</v>
       </c>
+      <c r="L271" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B272" t="inlineStr"/>
       <c r="C272" t="n">
@@ -10201,10 +11250,13 @@
       <c r="K272" t="n">
         <v>0</v>
       </c>
+      <c r="L272" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B273" t="inlineStr"/>
       <c r="C273" t="n">
@@ -10234,10 +11286,13 @@
       <c r="K273" t="n">
         <v>0</v>
       </c>
+      <c r="L273" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B274" t="inlineStr"/>
       <c r="C274" t="n">
@@ -10267,10 +11322,13 @@
       <c r="K274" t="n">
         <v>0</v>
       </c>
+      <c r="L274" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B275" t="inlineStr"/>
       <c r="C275" t="n">
@@ -10300,10 +11358,13 @@
       <c r="K275" t="n">
         <v>0</v>
       </c>
+      <c r="L275" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B276" t="inlineStr"/>
       <c r="C276" t="n">
@@ -10333,10 +11394,13 @@
       <c r="K276" t="n">
         <v>0</v>
       </c>
+      <c r="L276" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B277" t="inlineStr"/>
       <c r="C277" t="n">
@@ -10366,10 +11430,13 @@
       <c r="K277" t="n">
         <v>0</v>
       </c>
+      <c r="L277" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B278" t="inlineStr"/>
       <c r="C278" t="n">
@@ -10399,10 +11466,13 @@
       <c r="K278" t="n">
         <v>0</v>
       </c>
+      <c r="L278" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B279" t="inlineStr"/>
       <c r="C279" t="n">
@@ -10432,10 +11502,13 @@
       <c r="K279" t="n">
         <v>0</v>
       </c>
+      <c r="L279" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B280" t="inlineStr"/>
       <c r="C280" t="n">
@@ -10465,10 +11538,13 @@
       <c r="K280" t="n">
         <v>0</v>
       </c>
+      <c r="L280" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B281" t="inlineStr"/>
       <c r="C281" t="n">
@@ -10498,10 +11574,13 @@
       <c r="K281" t="n">
         <v>0</v>
       </c>
+      <c r="L281" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B282" t="inlineStr"/>
       <c r="C282" t="n">
@@ -10531,10 +11610,13 @@
       <c r="K282" t="n">
         <v>0</v>
       </c>
+      <c r="L282" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B283" t="inlineStr"/>
       <c r="C283" t="n">
@@ -10564,10 +11646,13 @@
       <c r="K283" t="n">
         <v>0</v>
       </c>
+      <c r="L283" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B284" t="inlineStr"/>
       <c r="C284" t="n">
@@ -10597,10 +11682,13 @@
       <c r="K284" t="n">
         <v>0</v>
       </c>
+      <c r="L284" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B285" t="inlineStr"/>
       <c r="C285" t="n">
@@ -10630,10 +11718,13 @@
       <c r="K285" t="n">
         <v>0</v>
       </c>
+      <c r="L285" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B286" t="inlineStr"/>
       <c r="C286" t="n">
@@ -10663,10 +11754,13 @@
       <c r="K286" t="n">
         <v>0</v>
       </c>
+      <c r="L286" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B287" t="inlineStr"/>
       <c r="C287" t="n">
@@ -10696,10 +11790,13 @@
       <c r="K287" t="n">
         <v>0</v>
       </c>
+      <c r="L287" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B288" t="inlineStr"/>
       <c r="C288" t="n">
@@ -10729,10 +11826,13 @@
       <c r="K288" t="n">
         <v>0</v>
       </c>
+      <c r="L288" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B289" t="inlineStr"/>
       <c r="C289" t="n">
@@ -10762,10 +11862,13 @@
       <c r="K289" t="n">
         <v>0</v>
       </c>
+      <c r="L289" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B290" t="inlineStr"/>
       <c r="C290" t="n">
@@ -10795,10 +11898,13 @@
       <c r="K290" t="n">
         <v>0</v>
       </c>
+      <c r="L290" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B291" t="inlineStr"/>
       <c r="C291" t="n">
@@ -10828,10 +11934,13 @@
       <c r="K291" t="n">
         <v>0</v>
       </c>
+      <c r="L291" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B292" t="inlineStr"/>
       <c r="C292" t="n">
@@ -10861,10 +11970,13 @@
       <c r="K292" t="n">
         <v>0</v>
       </c>
+      <c r="L292" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B293" t="inlineStr"/>
       <c r="C293" t="n">
@@ -10894,10 +12006,13 @@
       <c r="K293" t="n">
         <v>0</v>
       </c>
+      <c r="L293" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B294" t="inlineStr"/>
       <c r="C294" t="n">
@@ -10927,10 +12042,13 @@
       <c r="K294" t="n">
         <v>0</v>
       </c>
+      <c r="L294" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B295" t="inlineStr"/>
       <c r="C295" t="n">
@@ -10960,10 +12078,13 @@
       <c r="K295" t="n">
         <v>0</v>
       </c>
+      <c r="L295" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B296" t="inlineStr"/>
       <c r="C296" t="n">
@@ -10993,10 +12114,13 @@
       <c r="K296" t="n">
         <v>0</v>
       </c>
+      <c r="L296" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B297" t="inlineStr"/>
       <c r="C297" t="n">
@@ -11026,10 +12150,13 @@
       <c r="K297" t="n">
         <v>0</v>
       </c>
+      <c r="L297" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B298" t="inlineStr"/>
       <c r="C298" t="n">
@@ -11057,6 +12184,45 @@
         <v>0</v>
       </c>
       <c r="K298" t="n">
+        <v>0</v>
+      </c>
+      <c r="L298" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="inlineStr"/>
+      <c r="C299" t="n">
+        <v>0</v>
+      </c>
+      <c r="D299" t="n">
+        <v>0</v>
+      </c>
+      <c r="E299" t="n">
+        <v>0</v>
+      </c>
+      <c r="F299" t="n">
+        <v>0</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0</v>
+      </c>
+      <c r="H299" t="n">
+        <v>0</v>
+      </c>
+      <c r="I299" t="n">
+        <v>0</v>
+      </c>
+      <c r="J299" t="n">
+        <v>0</v>
+      </c>
+      <c r="K299" t="n">
+        <v>0</v>
+      </c>
+      <c r="L299" t="n">
         <v>0</v>
       </c>
     </row>

--- a/test_speeches/predictions/Coding_Differneces_103_AI.xlsx
+++ b/test_speeches/predictions/Coding_Differneces_103_AI.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Metaphor/Similie</t>
+          <t>Metaphor/Simile</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -456,7 +456,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Stories/Anecdotes</t>
+          <t>Stories / anecdotes</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -466,27 +466,27 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Lists</t>
+          <t xml:space="preserve">Lists / Repetition </t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Repetition</t>
+          <t>Moral conviction</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Moral_conviction</t>
+          <t>Sentiment of the collective</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Sentiment_of_the_collective</t>
+          <t>Ambitious goals / Setting high expectations</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Setting_high_expectations</t>
+          <t>Confidence in goals</t>
         </is>
       </c>
     </row>
